--- a/Notes SQL.xlsx
+++ b/Notes SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48C164-C360-4DDA-9C65-88D1CD94092A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD7614C-8159-436C-905A-469FB2523F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="36" windowWidth="10980" windowHeight="11748" activeTab="1" xr2:uid="{6A6534DF-B36B-4E54-84F8-CBF1DE1F80E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6A6534DF-B36B-4E54-84F8-CBF1DE1F80E6}"/>
   </bookViews>
   <sheets>
     <sheet name="dbms" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="summary" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="data type" sheetId="7" r:id="rId7"/>
+    <sheet name="sqlalchemy" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="316">
   <si>
     <t>CREATE</t>
   </si>
@@ -1361,13 +1362,513 @@
   </si>
   <si>
     <t>INSERT</t>
+  </si>
+  <si>
+    <t>INSERT INTO table_name</t>
+  </si>
+  <si>
+    <t>UPDATE table_name</t>
+  </si>
+  <si>
+    <t>(x,g,y,….)</t>
+  </si>
+  <si>
+    <t>(x,g,y,….);</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE db_name;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALTER TABLE table_name ADD COLUMN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_nam</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(?)/INT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALTER TABLE table_name DROP COLUMN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_nam</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALTER TABLE table_name CHANGE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLUMN_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_nam VARCHAR(?)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALTER TABLE table_name MODIFY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLUMN_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARCHAR(?)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALTER TABLE table_name ADD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_nam</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VARCHAR(?)/INT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AFTER </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COLUMN_NAME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>DROP TABLE employees;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RENAME TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employees_info</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TRUNCATE TABLE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employees_info</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = val;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=" ", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>col_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ?....</t>
+    </r>
+  </si>
+  <si>
+    <t>DELETE FROM table_name</t>
+  </si>
+  <si>
+    <t>COMMIT</t>
+  </si>
+  <si>
+    <t>ROLLBACK</t>
+  </si>
+  <si>
+    <t>Sr.No.</t>
+  </si>
+  <si>
+    <t>Method &amp; Description</t>
+  </si>
+  <si>
+    <t>connect()</t>
+  </si>
+  <si>
+    <t>Returns connection object</t>
+  </si>
+  <si>
+    <t>execute()</t>
+  </si>
+  <si>
+    <t>Executes a SQL statement construct</t>
+  </si>
+  <si>
+    <t>begin()</t>
+  </si>
+  <si>
+    <t>Returns a context manager delivering a Connection with a Transaction established. Upon successful operation, the Transaction is committed, else it is rolled back</t>
+  </si>
+  <si>
+    <t>dispose()</t>
+  </si>
+  <si>
+    <t>Disposes of the connection pool used by the Engine</t>
+  </si>
+  <si>
+    <t>driver()</t>
+  </si>
+  <si>
+    <t>Driver name of the Dialect in use by the Engine</t>
+  </si>
+  <si>
+    <t>table_names()</t>
+  </si>
+  <si>
+    <t>Returns a list of all table names available in the database</t>
+  </si>
+  <si>
+    <t>transaction()</t>
+  </si>
+  <si>
+    <t>Executes the given function within a transaction boundary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1583,8 +2084,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1621,8 +2190,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1838,12 +2413,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1928,6 +2544,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1999,63 +2638,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>546847</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>570013</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>71784</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5152054B-E84D-2976-362E-26657EBDA888}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8471647" y="3451412"/>
-          <a:ext cx="7419048" cy="2271255"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>291549</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>249471</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>328984</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>146768</xdr:rowOff>
     </xdr:to>
@@ -2073,7 +2663,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2117,7 +2707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2136,16 +2726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>453557</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>225287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>396227</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>207597</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42062</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2161,14 +2751,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="453557" y="3094383"/>
+          <a:off x="8116957" y="5791200"/>
           <a:ext cx="3845435" cy="1055736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2180,16 +2770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601063</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139292</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>210121</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>46526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>239785</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>113147</xdr:rowOff>
+      <xdr:colOff>160270</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2205,14 +2795,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5113428" y="3617988"/>
+          <a:off x="8174678" y="4452874"/>
           <a:ext cx="3905922" cy="1133420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2867,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A96D35-B7CF-43B3-848E-1966AFAFBCB1}">
   <dimension ref="A2:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
@@ -3391,64 +3981,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910436F0-AD71-4E48-A891-74ED6DA9ECFD}">
-  <dimension ref="A9:I13"/>
+  <dimension ref="A9:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="8.88671875" style="31"/>
+    <col min="2" max="6" width="8.88671875" style="31"/>
+    <col min="7" max="7" width="47" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="31" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="8.88671875" style="31"/>
     <col min="16" max="16" width="10" style="31" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="32" t="s">
         <v>281</v>
       </c>
       <c r="I9" s="38" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
+      <c r="K9" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K11" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B12" s="38" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="K12" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="47"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B18" s="38" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="K18" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B23" s="38" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" t="s">
-        <v>280</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="17" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3461,7 +4147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A03171-2A30-40FD-B95C-B29AA04AE49B}">
   <dimension ref="K3:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
@@ -4299,7 +4985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8734A1F8-FC1B-4CE4-A058-5C9CC8F383FC}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -4801,4 +5487,129 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D99D89-C260-4530-AD89-2DFDBA34CBE7}">
+  <dimension ref="D1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="82.109375" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="50"/>
+      <c r="E4" s="54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="49">
+        <v>2</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="50"/>
+      <c r="E6" s="54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="49">
+        <v>3</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="50"/>
+      <c r="E8" s="54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="49">
+        <v>4</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="50"/>
+      <c r="E10" s="54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="49">
+        <v>5</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="50"/>
+      <c r="E12" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="49">
+        <v>6</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="50"/>
+      <c r="E14" s="54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="49">
+        <v>7</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="50"/>
+      <c r="E16" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notes SQL.xlsx
+++ b/Notes SQL.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67CD57-87F1-489E-9C15-0F5AA4296EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4450D831-38E8-46B4-A6B2-43660DEFB581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="0" windowWidth="12024" windowHeight="12336" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbms" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
     <sheet name="Udemy" sheetId="3" r:id="rId4"/>
-    <sheet name="functionss" sheetId="4" r:id="rId5"/>
-    <sheet name="summary" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId7"/>
-    <sheet name="data type" sheetId="7" r:id="rId8"/>
-    <sheet name="sqlalchemy" sheetId="8" r:id="rId9"/>
+    <sheet name="keywords" sheetId="4" r:id="rId5"/>
+    <sheet name="functions" sheetId="6" r:id="rId6"/>
+    <sheet name="date functions" sheetId="10" r:id="rId7"/>
+    <sheet name="advanced func" sheetId="11" r:id="rId8"/>
+    <sheet name="summary" sheetId="5" r:id="rId9"/>
+    <sheet name="data type" sheetId="7" r:id="rId10"/>
+    <sheet name="sqlalchemy" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="627">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -118,30 +120,6 @@
   </si>
   <si>
     <t>2^64-1</t>
-  </si>
-  <si>
-    <t>left join shows on</t>
-  </si>
-  <si>
-    <t>exclusive film rows</t>
-  </si>
-  <si>
-    <t>intersecting inventory rows</t>
-  </si>
-  <si>
-    <t>film</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inventory </t>
-  </si>
-  <si>
-    <t>has null when inner join</t>
-  </si>
-  <si>
-    <t>reversing with the tables for inner join</t>
-  </si>
-  <si>
-    <t>DOES NOT have exclusive inventory rows</t>
   </si>
   <si>
     <t>select</t>
@@ -1865,47 +1843,965 @@
     </r>
   </si>
   <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>ContactName</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Alfreds Futterkiste</t>
-  </si>
-  <si>
-    <t>Maria Anders</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ana Trujillo Emparedados y helados</t>
-  </si>
-  <si>
-    <t>Ana Trujillo</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Antonio Moreno Taquería</t>
-  </si>
-  <si>
-    <t>Antonio Moreno</t>
+    <t>MySQL String Functions</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>Returns the ASCII value for the specific character</t>
+  </si>
+  <si>
+    <t>CHAR_LENGTH</t>
+  </si>
+  <si>
+    <t>Returns the length of a string (in characters)</t>
+  </si>
+  <si>
+    <t>CHARACTER_LENGTH</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t>Adds two or more expressions together</t>
+  </si>
+  <si>
+    <t>CONCAT_WS</t>
+  </si>
+  <si>
+    <t>Adds two or more expressions together with a separator</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>Returns the index position of a value in a list of values</t>
+  </si>
+  <si>
+    <t>FIND_IN_SET</t>
+  </si>
+  <si>
+    <t>Returns the position of a string within a list of strings</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>Formats a number to a format like "#,###,###.##", rounded to a specified number of decimal places</t>
+  </si>
+  <si>
+    <t>Inserts a string within a string at the specified position and for a certain number of characters</t>
+  </si>
+  <si>
+    <t>INSTR</t>
+  </si>
+  <si>
+    <t>Returns the position of the first occurrence of a string in another string</t>
+  </si>
+  <si>
+    <t>LCASE</t>
+  </si>
+  <si>
+    <t>Converts a string to lower-case</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>Extracts a number of characters from a string (starting from left)</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>Returns the length of a string (in bytes)</t>
+  </si>
+  <si>
+    <t>LOCATE</t>
+  </si>
+  <si>
+    <t>Returns the position of the first occurrence of a substring in a string</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>LPAD</t>
+  </si>
+  <si>
+    <t>Left-pads a string with another string, to a certain length</t>
+  </si>
+  <si>
+    <t>LTRIM</t>
+  </si>
+  <si>
+    <t>Removes leading spaces from a string</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Extracts a substring from a string (starting at any position)</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>Repeats a string as many times as specified</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>Replaces all occurrences of a substring within a string, with a new substring</t>
+  </si>
+  <si>
+    <t>REVERSE</t>
+  </si>
+  <si>
+    <t>Reverses a string and returns the result</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>Extracts a number of characters from a string (starting from right)</t>
+  </si>
+  <si>
+    <t>RPAD</t>
+  </si>
+  <si>
+    <t>Right-pads a string with another string, to a certain length</t>
+  </si>
+  <si>
+    <t>RTRIM</t>
+  </si>
+  <si>
+    <t>Removes trailing spaces from a string</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>Returns a string of the specified number of space characters</t>
+  </si>
+  <si>
+    <t>STRCMP</t>
+  </si>
+  <si>
+    <t>Compares two strings</t>
+  </si>
+  <si>
+    <t>SUBSTR</t>
+  </si>
+  <si>
+    <t>SUBSTRING</t>
+  </si>
+  <si>
+    <t>SUBSTRING_INDEX</t>
+  </si>
+  <si>
+    <t>Returns a substring of a string before a specified number of delimiter occurs</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>Removes leading and trailing spaces from a string</t>
+  </si>
+  <si>
+    <t>UCASE</t>
+  </si>
+  <si>
+    <t>Converts a string to upper-case</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>MySQL Numeric Functions</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Returns the absolute value of a number</t>
+  </si>
+  <si>
+    <t>ACOS</t>
+  </si>
+  <si>
+    <t>Returns the arc cosine of a number</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>Returns the arc sine of a number</t>
+  </si>
+  <si>
+    <t>ATAN</t>
+  </si>
+  <si>
+    <t>Returns the arc tangent of one or two numbers</t>
+  </si>
+  <si>
+    <t>ATAN2</t>
+  </si>
+  <si>
+    <t>Returns the arc tangent of two numbers</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Returns the average value of an expression</t>
+  </si>
+  <si>
+    <t>CEIL</t>
+  </si>
+  <si>
+    <t>Returns the smallest integer value that is &gt;= to a number</t>
+  </si>
+  <si>
+    <t>CEILING</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>Returns the cosine of a number</t>
+  </si>
+  <si>
+    <t>COT</t>
+  </si>
+  <si>
+    <t>Returns the cotangent of a number</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Returns the number of records returned by a select query</t>
+  </si>
+  <si>
+    <t>DEGREES</t>
+  </si>
+  <si>
+    <t>Converts a value in radians to degrees</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>Used for integer division</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Returns e raised to the power of a specified number</t>
+  </si>
+  <si>
+    <t>FLOOR</t>
+  </si>
+  <si>
+    <t>Returns the largest integer value that is &lt;= to a number</t>
+  </si>
+  <si>
+    <t>GREATEST</t>
+  </si>
+  <si>
+    <t>Returns the greatest value of the list of arguments</t>
+  </si>
+  <si>
+    <t>LEAST</t>
+  </si>
+  <si>
+    <t>Returns the smallest value of the list of arguments</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>Returns the natural logarithm of a number</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>Returns the natural logarithm of a number, or the logarithm of a number to a specified base</t>
+  </si>
+  <si>
+    <t>LOG10</t>
+  </si>
+  <si>
+    <t>Returns the natural logarithm of a number to base 10</t>
+  </si>
+  <si>
+    <t>LOG2</t>
+  </si>
+  <si>
+    <t>Returns the natural logarithm of a number to base 2</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Returns the maximum value in a set of values</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Returns the minimum value in a set of values</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>Returns the remainder of a number divided by another number</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Returns the value of PI</t>
+  </si>
+  <si>
+    <t>POW</t>
+  </si>
+  <si>
+    <t>Returns the value of a number raised to the power of another number</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>RADIANS</t>
+  </si>
+  <si>
+    <t>Converts a degree value into radians</t>
+  </si>
+  <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>Returns a random number</t>
+  </si>
+  <si>
+    <t>ROUND</t>
+  </si>
+  <si>
+    <t>Rounds a number to a specified number of decimal places</t>
+  </si>
+  <si>
+    <t>SIGN</t>
+  </si>
+  <si>
+    <t>Returns the sign of a number</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>Returns the sine of a number</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>Returns the square root of a number</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Calculates the sum of a set of values</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Returns the tangent of a number</t>
+  </si>
+  <si>
+    <t>Truncates a number to the specified number of decimal places</t>
+  </si>
+  <si>
+    <t>MySQL Date Functions</t>
+  </si>
+  <si>
+    <t>ADDDATE</t>
+  </si>
+  <si>
+    <t>Adds a time/date interval to a date and then returns the date</t>
+  </si>
+  <si>
+    <t>ADDTIME</t>
+  </si>
+  <si>
+    <t>Adds a time interval to a time/datetime and then returns the time/datetime</t>
+  </si>
+  <si>
+    <t>CURDATE</t>
+  </si>
+  <si>
+    <t>Returns the current date</t>
+  </si>
+  <si>
+    <t>CURRENT_DATE</t>
+  </si>
+  <si>
+    <t>CURRENT_TIME</t>
+  </si>
+  <si>
+    <t>Returns the current time</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Returns the current date and time</t>
+  </si>
+  <si>
+    <t>CURTIME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Extracts the date part from a datetime expression</t>
+  </si>
+  <si>
+    <t>DATEDIFF</t>
+  </si>
+  <si>
+    <t>Returns the number of days between two date values</t>
+  </si>
+  <si>
+    <t>DATE_ADD</t>
+  </si>
+  <si>
+    <t>DATE_FORMAT</t>
+  </si>
+  <si>
+    <t>Formats a date</t>
+  </si>
+  <si>
+    <t>DATE_SUB</t>
+  </si>
+  <si>
+    <t>Subtracts a time/date interval from a date and then returns the date</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>Returns the day of the month for a given date</t>
+  </si>
+  <si>
+    <t>DAYNAME</t>
+  </si>
+  <si>
+    <t>Returns the weekday name for a given date</t>
+  </si>
+  <si>
+    <t>DAYOFMONTH</t>
+  </si>
+  <si>
+    <t>DAYOFWEEK</t>
+  </si>
+  <si>
+    <t>Returns the weekday index for a given date</t>
+  </si>
+  <si>
+    <t>DAYOFYEAR</t>
+  </si>
+  <si>
+    <t>Returns the day of the year for a given date</t>
+  </si>
+  <si>
+    <t>EXTRACT</t>
+  </si>
+  <si>
+    <t>Extracts a part from a given date</t>
+  </si>
+  <si>
+    <t>FROM_DAYS</t>
+  </si>
+  <si>
+    <t>Returns a date from a numeric datevalue</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>Returns the hour part for a given date</t>
+  </si>
+  <si>
+    <t>LAST_DAY</t>
+  </si>
+  <si>
+    <t>Extracts the last day of the month for a given date</t>
+  </si>
+  <si>
+    <t>LOCALTIME</t>
+  </si>
+  <si>
+    <t>LOCALTIMESTAMP</t>
+  </si>
+  <si>
+    <t>MAKEDATE</t>
+  </si>
+  <si>
+    <t>Creates and returns a date based on a year and a number of days value</t>
+  </si>
+  <si>
+    <t>MAKETIME</t>
+  </si>
+  <si>
+    <t>Creates and returns a time based on an hour, minute, and second value</t>
+  </si>
+  <si>
+    <t>MICROSECOND</t>
+  </si>
+  <si>
+    <t>Returns the microsecond part of a time/datetime</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
+  </si>
+  <si>
+    <t>Returns the minute part of a time/datetime</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>Returns the month part for a given date</t>
+  </si>
+  <si>
+    <t>MONTHNAME</t>
+  </si>
+  <si>
+    <t>Returns the name of the month for a given date</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>PERIOD_ADD</t>
+  </si>
+  <si>
+    <t>Adds a specified number of months to a period</t>
+  </si>
+  <si>
+    <t>PERIOD_DIFF</t>
+  </si>
+  <si>
+    <t>Returns the difference between two periods</t>
+  </si>
+  <si>
+    <t>QUARTER</t>
+  </si>
+  <si>
+    <t>Returns the quarter of the year for a given date value</t>
+  </si>
+  <si>
+    <t>SECOND</t>
+  </si>
+  <si>
+    <t>Returns the seconds part of a time/datetime</t>
+  </si>
+  <si>
+    <t>SEC_TO_TIME</t>
+  </si>
+  <si>
+    <t>Returns a time value based on the specified seconds</t>
+  </si>
+  <si>
+    <t>STR_TO_DATE</t>
+  </si>
+  <si>
+    <t>Returns a date based on a string and a format</t>
+  </si>
+  <si>
+    <t>SUBDATE</t>
+  </si>
+  <si>
+    <t>SUBTIME</t>
+  </si>
+  <si>
+    <t>Subtracts a time interval from a datetime and then returns the time/datetime</t>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Extracts the time part from a given time/datetime</t>
+  </si>
+  <si>
+    <t>TIME_FORMAT</t>
+  </si>
+  <si>
+    <t>Formats a time by a specified format</t>
+  </si>
+  <si>
+    <t>TIME_TO_SEC</t>
+  </si>
+  <si>
+    <t>Converts a time value into seconds</t>
+  </si>
+  <si>
+    <t>TIMEDIFF</t>
+  </si>
+  <si>
+    <t>Returns the difference between two time/datetime expressions</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Returns a datetime value based on a date or datetime value</t>
+  </si>
+  <si>
+    <t>TO_DAYS</t>
+  </si>
+  <si>
+    <t>Returns the number of days between a date and date "0000-00-00"</t>
+  </si>
+  <si>
+    <t>WEEK</t>
+  </si>
+  <si>
+    <t>Returns the week number for a given date</t>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+  </si>
+  <si>
+    <t>Returns the weekday number for a given date</t>
+  </si>
+  <si>
+    <t>WEEKOFYEAR</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Returns the year part for a given date</t>
+  </si>
+  <si>
+    <t>YEARWEEK</t>
+  </si>
+  <si>
+    <t>Returns the year and week number for a given date</t>
+  </si>
+  <si>
+    <t>MySQL Advanced Functions</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>Returns a binary representation of a number</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Converts a value to a binary string</t>
+  </si>
+  <si>
+    <t>Goes through conditions and return a value when the first condition is met</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>Converts a value (of any type) into a specified datatype</t>
+  </si>
+  <si>
+    <t>COALESCE</t>
+  </si>
+  <si>
+    <t>Returns the first non-null value in a list</t>
+  </si>
+  <si>
+    <t>CONNECTION_ID</t>
+  </si>
+  <si>
+    <t>Returns the unique connection ID for the current connection</t>
+  </si>
+  <si>
+    <t>CONV</t>
+  </si>
+  <si>
+    <t>Converts a number from one numeric base system to another</t>
+  </si>
+  <si>
+    <t>CONVERT</t>
+  </si>
+  <si>
+    <t>Converts a value into the specified datatype or character set</t>
+  </si>
+  <si>
+    <t>CURRENT_USER</t>
+  </si>
+  <si>
+    <t>Returns the user name and host name for the MySQL account that the server used to authenticate the current client</t>
+  </si>
+  <si>
+    <t>Returns the name of the current database</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Returns a value if a condition is TRUE, or another value if a condition is FALSE</t>
+  </si>
+  <si>
+    <t>IFNULL</t>
+  </si>
+  <si>
+    <t>Return a specified value if the expression is NULL, otherwise return the expression</t>
+  </si>
+  <si>
+    <t>ISNULL</t>
+  </si>
+  <si>
+    <t>Returns 1 or 0 depending on whether an expression is NULL</t>
+  </si>
+  <si>
+    <t>LAST_INSERT_ID</t>
+  </si>
+  <si>
+    <t>Returns the AUTO_INCREMENT id of the last row that has been inserted or updated in a table</t>
+  </si>
+  <si>
+    <t>NULLIF</t>
+  </si>
+  <si>
+    <t>Compares two expressions and returns NULL if they are equal. Otherwise, the first expression is returned</t>
+  </si>
+  <si>
+    <t>SESSION_USER</t>
+  </si>
+  <si>
+    <t>Returns the current MySQL user name and host name</t>
+  </si>
+  <si>
+    <t>SYSTEM_USER</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>Returns the current version of the MySQL database</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>%a</t>
+  </si>
+  <si>
+    <t>Abbreviated weekday name (Sun to Sat)</t>
+  </si>
+  <si>
+    <t>%b</t>
+  </si>
+  <si>
+    <t>Abbreviated month name (Jan to Dec)</t>
+  </si>
+  <si>
+    <t>%c</t>
+  </si>
+  <si>
+    <t>Numeric month name (0 to 12)</t>
+  </si>
+  <si>
+    <t>%D</t>
+  </si>
+  <si>
+    <t>Day of the month as a numeric value, followed by suffix (1st, 2nd, 3rd, ...)</t>
+  </si>
+  <si>
+    <t>%d</t>
+  </si>
+  <si>
+    <t>Day of the month as a numeric value (01 to 31)</t>
+  </si>
+  <si>
+    <t>%e</t>
+  </si>
+  <si>
+    <t>Day of the month as a numeric value (0 to 31)</t>
+  </si>
+  <si>
+    <t>%f</t>
+  </si>
+  <si>
+    <t>Microseconds (000000 to 999999)</t>
+  </si>
+  <si>
+    <t>%H</t>
+  </si>
+  <si>
+    <t>Hour (00 to 23)</t>
+  </si>
+  <si>
+    <t>%h</t>
+  </si>
+  <si>
+    <t>Hour (00 to 12)</t>
+  </si>
+  <si>
+    <t>%I</t>
+  </si>
+  <si>
+    <t>%i</t>
+  </si>
+  <si>
+    <t>Minutes (00 to 59)</t>
+  </si>
+  <si>
+    <t>%j</t>
+  </si>
+  <si>
+    <t>Day of the year (001 to 366)</t>
+  </si>
+  <si>
+    <t>%k</t>
+  </si>
+  <si>
+    <t>Hour (0 to 23)</t>
+  </si>
+  <si>
+    <t>%l</t>
+  </si>
+  <si>
+    <t>Hour (1 to 12)</t>
+  </si>
+  <si>
+    <t>%M</t>
+  </si>
+  <si>
+    <t>Month name in full (January to December)</t>
+  </si>
+  <si>
+    <t>%m</t>
+  </si>
+  <si>
+    <t>Month name as a numeric value (00 to 12)</t>
+  </si>
+  <si>
+    <t>%p</t>
+  </si>
+  <si>
+    <t>AM or PM</t>
+  </si>
+  <si>
+    <t>%r</t>
+  </si>
+  <si>
+    <t>Time in 12 hour AM or PM format (hh:mm:ss AM/PM)</t>
+  </si>
+  <si>
+    <t>%S</t>
+  </si>
+  <si>
+    <t>Seconds (00 to 59)</t>
+  </si>
+  <si>
+    <t>%s</t>
+  </si>
+  <si>
+    <t>%T</t>
+  </si>
+  <si>
+    <t>Time in 24 hour format (hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>%U</t>
+  </si>
+  <si>
+    <t>Week where Sunday is the first day of the week (00 to 53)</t>
+  </si>
+  <si>
+    <t>%u</t>
+  </si>
+  <si>
+    <t>Week where Monday is the first day of the week (00 to 53)</t>
+  </si>
+  <si>
+    <t>%V</t>
+  </si>
+  <si>
+    <t>Week where Sunday is the first day of the week (01 to 53). Used with %X</t>
+  </si>
+  <si>
+    <t>%v</t>
+  </si>
+  <si>
+    <t>Week where Monday is the first day of the week (01 to 53). Used with %x</t>
+  </si>
+  <si>
+    <t>%W</t>
+  </si>
+  <si>
+    <t>Weekday name in full (Sunday to Saturday)</t>
+  </si>
+  <si>
+    <t>%w</t>
+  </si>
+  <si>
+    <t>Day of the week where Sunday=0 and Saturday=6</t>
+  </si>
+  <si>
+    <t>%X</t>
+  </si>
+  <si>
+    <t>Year for the week where Sunday is the first day of the week. Used with %V</t>
+  </si>
+  <si>
+    <t>%x</t>
+  </si>
+  <si>
+    <t>Year for the week where Monday is the first day of the week. Used with %v</t>
+  </si>
+  <si>
+    <t>%Y</t>
+  </si>
+  <si>
+    <t>Year as a numeric, 4-digit value</t>
+  </si>
+  <si>
+    <t>%y</t>
+  </si>
+  <si>
+    <t>Year as a numeric, 2-digit value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1957,14 +2853,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2211,8 +3099,100 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2222,11 +3202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2255,8 +3230,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E9EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2339,92 +3350,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2578,11 +3503,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2627,46 +3623,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2684,37 +3641,37 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2729,23 +3686,50 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2753,41 +3737,112 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="39" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3509,519 +4564,797 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="J5" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="J6" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="36" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="50" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="36" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="50" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="J9" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+    </row>
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="J10" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+    </row>
+    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="J5" s="39" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="52" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="50" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="J13" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="J6" s="56" t="s">
+    </row>
+    <row r="14" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="J14" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-    </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="52"/>
-    </row>
-    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="50" t="s">
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+    </row>
+    <row r="15" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+    </row>
+    <row r="16" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+    </row>
+    <row r="17" spans="2:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+    </row>
+    <row r="18" spans="2:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+    </row>
+    <row r="19" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-    </row>
-    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+    </row>
+    <row r="20" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="J9" s="39" t="s">
+      <c r="N20" s="33" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="J10" s="56" t="s">
+    <row r="21" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="N21" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-    </row>
-    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="47" t="s">
+    </row>
+    <row r="22" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-    </row>
-    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="58" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="N22" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="J13" s="39" t="s">
+    </row>
+    <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="45" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="J14" s="56" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="N23" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-    </row>
-    <row r="15" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-    </row>
-    <row r="16" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-    </row>
-    <row r="17" spans="2:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-    </row>
-    <row r="18" spans="2:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-    </row>
-    <row r="19" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39" t="s">
+    </row>
+    <row r="24" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="N24" s="16" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="N20" s="47" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="N21" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-      <c r="N22" s="22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="N23" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="N24" s="22" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+    </row>
+    <row r="27" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="N27" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="N28" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="T28" s="41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="N30" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="62"/>
-    </row>
-    <row r="27" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="63" t="s">
+      <c r="T30" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="N27" s="54" t="s">
+    </row>
+    <row r="31" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="T27" s="54" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="N31" s="16" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="N28" s="55" t="s">
+      <c r="T31" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="T28" s="55" t="s">
+    </row>
+    <row r="32" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="T32" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N29" s="22" t="s">
+    <row r="33" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="R33" s="40" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="62"/>
-      <c r="N30" s="22" t="s">
+    <row r="34" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="R34" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="T30" s="22" t="s">
+    </row>
+    <row r="35" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="16" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="63" t="s">
+      <c r="R35" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="N31" s="22" t="s">
+    </row>
+    <row r="36" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="T31" s="22" t="s">
+      <c r="R36" s="16" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="T32" s="22" t="s">
+    <row r="37" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N33" s="54" t="s">
+    <row r="38" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="16" t="s">
         <v>300</v>
-      </c>
-      <c r="R33" s="54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N34" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="R34" s="55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N35" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="R35" s="22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N36" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="R36" s="22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R37" s="22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R38" s="22" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="39" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N40" s="54" t="s">
-        <v>309</v>
+      <c r="N40" s="40" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N41" s="22" t="s">
-        <v>310</v>
+      <c r="N41" s="16" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N42" s="22" t="s">
-        <v>311</v>
+      <c r="N42" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N43" s="22" t="s">
-        <v>312</v>
+      <c r="N43" s="16" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N44" s="22" t="s">
-        <v>313</v>
+      <c r="N44" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N45" s="22" t="s">
-        <v>314</v>
+      <c r="N45" s="16" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N46" s="22" t="s">
-        <v>315</v>
+      <c r="N46" s="16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N47" s="22" t="s">
-        <v>316</v>
+      <c r="N47" s="16" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:Q7"/>
+    <mergeCell ref="J10:Q11"/>
+    <mergeCell ref="A13:H16"/>
+    <mergeCell ref="J14:P16"/>
+    <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J24"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C27:J28"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J32"/>
-    <mergeCell ref="J6:Q7"/>
-    <mergeCell ref="J10:Q11"/>
-    <mergeCell ref="A13:H16"/>
-    <mergeCell ref="J14:P16"/>
-    <mergeCell ref="C22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="C1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:8" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>-128</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>127</v>
+      </c>
+      <c r="H5" s="14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>-32768</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>32767</v>
+      </c>
+      <c r="H6" s="14">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>-8388608</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>8388607</v>
+      </c>
+      <c r="H7" s="14">
+        <v>16777215</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="14">
+        <v>-2147483648</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2147483647</v>
+      </c>
+      <c r="H8" s="14">
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="D1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4055,142 +5388,142 @@
     <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
-        <v>97</v>
+      <c r="A9" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="H9" s="47" t="s">
+    </row>
+    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="I9" t="s">
-        <v>234</v>
-      </c>
-      <c r="K9" s="22" t="s">
+      <c r="K14" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="16" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="22" t="s">
+      <c r="K15" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="K12" s="22" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="22" t="s">
+      <c r="H17" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="K13" s="22" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="K18" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="K14" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="22" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="49"/>
-    </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+      <c r="B20" t="s">
         <v>245</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="H20" s="32" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="22" t="s">
+      <c r="H21" s="32" t="s">
         <v>248</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B20" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="46" t="s">
-        <v>257</v>
+      <c r="A23" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>259</v>
+      <c r="B24" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4201,10 +5534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA25D3F-7051-4F17-8843-A5CBC13B16F3}">
-  <dimension ref="F3:M9"/>
+  <dimension ref="G3:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4214,96 +5547,60 @@
     <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" s="66" t="s">
-        <v>320</v>
-      </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-    </row>
-    <row r="5" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-    </row>
-    <row r="6" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-    </row>
-    <row r="7" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="67" t="s">
-        <v>328</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-    </row>
-    <row r="8" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-    </row>
-    <row r="9" spans="6:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+    <row r="3" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4330,72 +5627,72 @@
     <row r="2" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="S4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="S5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="S6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="S8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4410,7 +5707,7 @@
   </sheetPr>
   <dimension ref="C1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4422,648 +5719,648 @@
   <sheetData>
     <row r="1" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="40" t="s">
+    </row>
+    <row r="8" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D8" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="42" t="s">
+    <row r="9" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D9" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="40" t="s">
+    <row r="10" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D10" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="42" t="s">
+    <row r="11" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D11" s="29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="40" t="s">
+    <row r="12" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D12" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="42" t="s">
+    <row r="13" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D13" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="40" t="s">
+    <row r="14" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D14" s="27" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="42" t="s">
+    <row r="15" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D15" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="40" t="s">
+    <row r="16" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D16" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="42" t="s">
+    <row r="17" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D17" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="40" t="s">
+    <row r="18" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D18" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="42" t="s">
+    <row r="19" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D19" s="29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="40" t="s">
+    <row r="20" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D20" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="42" t="s">
+    <row r="21" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D21" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="40" t="s">
+    <row r="22" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D22" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="42" t="s">
+    <row r="23" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D23" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="40" t="s">
+    <row r="24" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D24" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="42" t="s">
+    <row r="25" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D25" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="40" t="s">
+    <row r="26" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D26" s="27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="42" t="s">
+    <row r="27" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D27" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="40" t="s">
+    <row r="28" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D28" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="42" t="s">
+    <row r="29" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D29" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="40" t="s">
+    <row r="30" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D30" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="42" t="s">
+    <row r="31" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D31" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="40" t="s">
+    <row r="32" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D32" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="42" t="s">
+    <row r="33" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D33" s="29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="40" t="s">
+    <row r="34" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D34" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="42" t="s">
+    <row r="35" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D35" s="29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="40" t="s">
+    <row r="36" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D36" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="42" t="s">
+    <row r="37" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D37" s="29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="40" t="s">
+    <row r="38" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D38" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="42" t="s">
+    <row r="39" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D39" s="29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="40" t="s">
+    <row r="40" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D40" s="27" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="42" t="s">
+    <row r="41" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D41" s="29" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="40" t="s">
+    <row r="42" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D42" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="42" t="s">
+    <row r="43" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C43" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D43" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="40" t="s">
+    <row r="44" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D44" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="42" t="s">
+    <row r="45" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D45" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="40" t="s">
+    <row r="46" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C46" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D46" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="42" t="s">
+    <row r="47" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C47" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D47" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="40" t="s">
+    <row r="48" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D48" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="42" t="s">
+    <row r="49" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C49" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D49" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="40" t="s">
+    <row r="50" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C50" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D50" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="42" t="s">
+    <row r="51" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C51" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D51" s="29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="40" t="s">
+    <row r="52" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C52" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D52" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C49" s="42" t="s">
+    <row r="53" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D53" s="29" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="40" t="s">
+    <row r="54" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D54" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C51" s="42" t="s">
+    <row r="55" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C55" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D55" s="29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="40" t="s">
+    <row r="56" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D56" s="27" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="42" t="s">
+    <row r="57" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D57" s="29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="40" t="s">
+    <row r="58" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C58" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D58" s="27" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="42" t="s">
+    <row r="59" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C59" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D59" s="29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="40" t="s">
+    <row r="60" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C60" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D60" s="27" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="42" t="s">
+    <row r="61" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C61" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D61" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C58" s="40" t="s">
+    <row r="62" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C62" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D62" s="27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="42" t="s">
+    <row r="63" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C63" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D63" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C64" s="26" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C60" s="40" t="s">
+      <c r="D64" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="41" t="s">
+    </row>
+    <row r="65" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C65" s="28" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="42" t="s">
+      <c r="D65" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="43" t="s">
+    </row>
+    <row r="66" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C66" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C62" s="40" t="s">
+      <c r="D66" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="41" t="s">
+    </row>
+    <row r="67" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C67" s="28" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="42" t="s">
+      <c r="D67" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C68" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C64" s="40" t="s">
+      <c r="D68" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D64" s="41" t="s">
+    </row>
+    <row r="69" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C69" s="28" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="42" t="s">
+      <c r="D69" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C70" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D70" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="40" t="s">
+    <row r="71" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C71" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D71" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C72" s="26" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="42" t="s">
+      <c r="D72" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="40" t="s">
+    </row>
+    <row r="73" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C73" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D73" s="29" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="42" t="s">
+    <row r="74" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C74" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C70" s="40" t="s">
+      <c r="D74" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C75" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D75" s="29" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C71" s="42" t="s">
+    <row r="76" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C76" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C72" s="40" t="s">
+      <c r="D76" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D72" s="41" t="s">
+    </row>
+    <row r="77" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C77" s="28" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C73" s="42" t="s">
+      <c r="D77" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D73" s="43" t="s">
+    </row>
+    <row r="78" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C78" s="26" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C74" s="40" t="s">
+      <c r="D78" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D74" s="41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C75" s="42" t="s">
+    </row>
+    <row r="79" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C79" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D79" s="29" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C76" s="40" t="s">
+    <row r="80" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C80" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D80" s="27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C77" s="42" t="s">
+    <row r="81" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C81" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D81" s="29" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C78" s="40" t="s">
+    <row r="82" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C82" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D82" s="31" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C79" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C80" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C81" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C82" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5072,6 +6369,1677 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B3:L40"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="76" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>392</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>400</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="H21" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="77" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="77" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="H29" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="H30" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="H31" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="I31" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>423</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>426</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="H34" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="H35" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="H36" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="I36" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="H37" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="I37" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="H38" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="H39" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="I39" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="I40" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.w3schools.com/sql/func_mysql_ascii.asp" xr:uid="{402C8CE4-6FB9-458E-8B00-8DA0A177FE3B}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://www.w3schools.com/sql/func_mysql_char_length.asp" xr:uid="{381CDA3C-6436-439F-A2B6-E920590D17A3}"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://www.w3schools.com/sql/func_mysql_character_length.asp" xr:uid="{1F9CFFDE-373D-4C34-82B0-A523321D80C5}"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://www.w3schools.com/sql/func_mysql_concat.asp" xr:uid="{89D7E184-3C6A-490F-B6FE-E1F28D2DD84E}"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://www.w3schools.com/sql/func_mysql_concat_ws.asp" xr:uid="{4ED02325-3BC9-4474-B9DF-918C8681C8FD}"/>
+    <hyperlink ref="B10" r:id="rId6" display="https://www.w3schools.com/sql/func_mysql_field.asp" xr:uid="{48904BC5-A4BA-4120-90E8-ACC72B427E24}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://www.w3schools.com/sql/func_mysql_find_in_set.asp" xr:uid="{CBD7AC1A-F176-4DB8-A655-32A7477178DF}"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://www.w3schools.com/sql/func_mysql_format.asp" xr:uid="{50B49225-5920-4AE7-9FE6-5DB200130E1C}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://www.w3schools.com/sql/func_mysql_insert.asp" xr:uid="{11295B62-4932-4CB2-9CF1-460D4FADC3DC}"/>
+    <hyperlink ref="B14" r:id="rId10" display="https://www.w3schools.com/sql/func_mysql_instr.asp" xr:uid="{3003A172-DE40-408D-AA2A-90A1D27E9175}"/>
+    <hyperlink ref="B15" r:id="rId11" display="https://www.w3schools.com/sql/func_mysql_lcase.asp" xr:uid="{A01E673D-693F-49A5-A106-8F07FADA5A85}"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://www.w3schools.com/sql/func_mysql_left.asp" xr:uid="{6BF1E547-9D3C-41AB-AA82-BBFC83A564FF}"/>
+    <hyperlink ref="B17" r:id="rId13" display="https://www.w3schools.com/sql/func_mysql_length.asp" xr:uid="{E079463F-2CDC-4952-A0F9-780D2DE8E42A}"/>
+    <hyperlink ref="B18" r:id="rId14" display="https://www.w3schools.com/sql/func_mysql_locate.asp" xr:uid="{5215BDAD-9618-440E-A572-7237BFBA6E0D}"/>
+    <hyperlink ref="B19" r:id="rId15" display="https://www.w3schools.com/sql/func_mysql_lower.asp" xr:uid="{1B27BFAA-FDFA-4CA2-B123-97DE765A1E17}"/>
+    <hyperlink ref="B20" r:id="rId16" display="https://www.w3schools.com/sql/func_mysql_lpad.asp" xr:uid="{71AD463F-B8F5-4731-823B-A0C09AF1B590}"/>
+    <hyperlink ref="B21" r:id="rId17" display="https://www.w3schools.com/sql/func_mysql_ltrim.asp" xr:uid="{BC91BE7A-6B83-43A9-91C2-37A23D3FD5A1}"/>
+    <hyperlink ref="B22" r:id="rId18" display="https://www.w3schools.com/sql/func_mysql_mid.asp" xr:uid="{6048C99F-40AB-4675-903A-53AEFC6EC300}"/>
+    <hyperlink ref="B23" r:id="rId19" display="https://www.w3schools.com/sql/func_mysql_position.asp" xr:uid="{0AF8A123-762F-473A-8BC9-C9D70B0FEB83}"/>
+    <hyperlink ref="B24" r:id="rId20" display="https://www.w3schools.com/sql/func_mysql_repeat.asp" xr:uid="{77CEFD6C-97CC-4FDE-A5EF-10A4150161CC}"/>
+    <hyperlink ref="B25" r:id="rId21" display="https://www.w3schools.com/sql/func_mysql_replace.asp" xr:uid="{7F4F786B-FB12-4C52-88FD-0884B2DF65FF}"/>
+    <hyperlink ref="B26" r:id="rId22" display="https://www.w3schools.com/sql/func_mysql_reverse.asp" xr:uid="{3B995830-7093-43AF-87EE-BC584B315A84}"/>
+    <hyperlink ref="B27" r:id="rId23" display="https://www.w3schools.com/sql/func_mysql_right.asp" xr:uid="{61D02E5F-2877-4AE7-8FCD-5969BE5AD5AC}"/>
+    <hyperlink ref="B28" r:id="rId24" display="https://www.w3schools.com/sql/func_mysql_rpad.asp" xr:uid="{3CE27E1E-1408-480B-80F9-76C275FB2731}"/>
+    <hyperlink ref="B29" r:id="rId25" display="https://www.w3schools.com/sql/func_mysql_rtrim.asp" xr:uid="{22F35D54-41F8-44F3-B264-39EBD94545BF}"/>
+    <hyperlink ref="B30" r:id="rId26" display="https://www.w3schools.com/sql/func_mysql_space.asp" xr:uid="{3E9E23CC-B1B6-47DA-A9B8-98A25C549637}"/>
+    <hyperlink ref="B31" r:id="rId27" display="https://www.w3schools.com/sql/func_mysql_strcmp.asp" xr:uid="{0656BDCF-7670-432A-8089-A056DACCC151}"/>
+    <hyperlink ref="B32" r:id="rId28" display="https://www.w3schools.com/sql/func_mysql_substr.asp" xr:uid="{591A974C-91FB-45EE-9B5C-73F588698F5C}"/>
+    <hyperlink ref="B33" r:id="rId29" display="https://www.w3schools.com/sql/func_mysql_substring.asp" xr:uid="{E3A2EB8A-88C6-4E60-BFD5-50C0BBC9F509}"/>
+    <hyperlink ref="B34" r:id="rId30" display="https://www.w3schools.com/sql/func_mysql_substring_index.asp" xr:uid="{27E37930-B18A-40E2-8395-5346BF5BCCD1}"/>
+    <hyperlink ref="B35" r:id="rId31" display="https://www.w3schools.com/sql/func_mysql_trim.asp" xr:uid="{97373731-6832-4092-BB45-B64E670185B4}"/>
+    <hyperlink ref="B36" r:id="rId32" display="https://www.w3schools.com/sql/func_mysql_ucase.asp" xr:uid="{E9B9A40B-9AC2-4244-BCEA-D01C4A273F84}"/>
+    <hyperlink ref="B37" r:id="rId33" display="https://www.w3schools.com/sql/func_mysql_upper.asp" xr:uid="{A940843C-1A9F-4F08-A72C-2CCCB461B752}"/>
+    <hyperlink ref="H5" r:id="rId34" display="https://www.w3schools.com/sql/func_mysql_abs.asp" xr:uid="{13A01E8C-727D-424F-9E9E-89E8888006BD}"/>
+    <hyperlink ref="H6" r:id="rId35" display="https://www.w3schools.com/sql/func_mysql_acos.asp" xr:uid="{D92D7632-6E39-4211-B9D9-77EDC7D04068}"/>
+    <hyperlink ref="H7" r:id="rId36" display="https://www.w3schools.com/sql/func_mysql_asin.asp" xr:uid="{12280E56-8FFB-4A16-9038-D4937CD15537}"/>
+    <hyperlink ref="H8" r:id="rId37" display="https://www.w3schools.com/sql/func_mysql_atan.asp" xr:uid="{81BCB3C0-5728-46B6-8A93-9CF0EFDE4C06}"/>
+    <hyperlink ref="H9" r:id="rId38" display="https://www.w3schools.com/sql/func_mysql_atan2.asp" xr:uid="{B8701722-55A0-4C01-A65B-0435059EE788}"/>
+    <hyperlink ref="H10" r:id="rId39" display="https://www.w3schools.com/sql/func_mysql_avg.asp" xr:uid="{7EB5B18C-FB2C-4CA8-9EBC-28E8E10BF149}"/>
+    <hyperlink ref="H11" r:id="rId40" display="https://www.w3schools.com/sql/func_mysql_ceil.asp" xr:uid="{C1A07451-A36B-40D3-BCE6-32DA3C8C69D6}"/>
+    <hyperlink ref="H12" r:id="rId41" display="https://www.w3schools.com/sql/func_mysql_ceiling.asp" xr:uid="{7CFA89FE-6599-4469-986D-F2974BB7578E}"/>
+    <hyperlink ref="H13" r:id="rId42" display="https://www.w3schools.com/sql/func_mysql_cos.asp" xr:uid="{B57E47F0-F59A-4E2D-87C0-99E2A1921A5D}"/>
+    <hyperlink ref="H14" r:id="rId43" display="https://www.w3schools.com/sql/func_mysql_cot.asp" xr:uid="{1F09A86A-EF9F-4328-87F7-E9F2DB45F7A0}"/>
+    <hyperlink ref="H15" r:id="rId44" display="https://www.w3schools.com/sql/func_mysql_count.asp" xr:uid="{50288DDD-0158-475D-9CFD-F86ACCDEC298}"/>
+    <hyperlink ref="H16" r:id="rId45" display="https://www.w3schools.com/sql/func_mysql_degrees.asp" xr:uid="{67F47356-51A7-4D6E-9673-20B4D41F14A5}"/>
+    <hyperlink ref="H17" r:id="rId46" display="https://www.w3schools.com/sql/func_mysql_div.asp" xr:uid="{758CFC99-051A-474F-BB2A-F5E817C774FC}"/>
+    <hyperlink ref="H18" r:id="rId47" display="https://www.w3schools.com/sql/func_mysql_exp.asp" xr:uid="{FAFA5AC7-ACEC-40C0-8459-41517245C7C8}"/>
+    <hyperlink ref="H19" r:id="rId48" display="https://www.w3schools.com/sql/func_mysql_floor.asp" xr:uid="{277C0553-55FF-410B-99D5-B0A2F752CE04}"/>
+    <hyperlink ref="H20" r:id="rId49" display="https://www.w3schools.com/sql/func_mysql_greatest.asp" xr:uid="{0A17E4E2-8CBA-4856-9218-B00941E87EF7}"/>
+    <hyperlink ref="H21" r:id="rId50" display="https://www.w3schools.com/sql/func_mysql_least.asp" xr:uid="{2A97C22C-ECA1-4648-AE3A-5ECCCF50085A}"/>
+    <hyperlink ref="H22" r:id="rId51" display="https://www.w3schools.com/sql/func_mysql_ln.asp" xr:uid="{4D77410D-FF73-45B4-88D2-AD235DD8E8D6}"/>
+    <hyperlink ref="H23" r:id="rId52" display="https://www.w3schools.com/sql/func_mysql_log.asp" xr:uid="{FE07FB40-7C4A-44B6-9BA7-E3C9DF14F629}"/>
+    <hyperlink ref="H24" r:id="rId53" display="https://www.w3schools.com/sql/func_mysql_log10.asp" xr:uid="{58C7D303-F8D5-4126-9A68-B37B8EA11ADC}"/>
+    <hyperlink ref="H25" r:id="rId54" display="https://www.w3schools.com/sql/func_mysql_log2.asp" xr:uid="{A9E6211E-C9DC-4375-B2FA-4CAC5B9D0DB2}"/>
+    <hyperlink ref="H26" r:id="rId55" display="https://www.w3schools.com/sql/func_mysql_max.asp" xr:uid="{B7462E4E-04C0-4270-B9A2-EC6C0812AD00}"/>
+    <hyperlink ref="H27" r:id="rId56" display="https://www.w3schools.com/sql/func_mysql_min.asp" xr:uid="{E6937847-0469-496C-B9FE-1C10E26C58C1}"/>
+    <hyperlink ref="H28" r:id="rId57" display="https://www.w3schools.com/sql/func_mysql_mod.asp" xr:uid="{77BF8DCD-9F3C-4224-8AB8-91A65ACC20EF}"/>
+    <hyperlink ref="H29" r:id="rId58" display="https://www.w3schools.com/sql/func_mysql_pi.asp" xr:uid="{C1C94E2A-1EF8-4F2C-A66A-D21770C9143E}"/>
+    <hyperlink ref="H30" r:id="rId59" display="https://www.w3schools.com/sql/func_mysql_pow.asp" xr:uid="{8A3BF93B-9F07-4299-A8EC-92B6EA969F6A}"/>
+    <hyperlink ref="H31" r:id="rId60" display="https://www.w3schools.com/sql/func_mysql_power.asp" xr:uid="{2D353A22-40BA-4F2B-8436-A992BAF25197}"/>
+    <hyperlink ref="H32" r:id="rId61" display="https://www.w3schools.com/sql/func_mysql_radians.asp" xr:uid="{87B1C128-2672-40A8-A4CB-2149719BE115}"/>
+    <hyperlink ref="H33" r:id="rId62" display="https://www.w3schools.com/sql/func_mysql_rand.asp" xr:uid="{4495A459-D19E-4EDE-8A31-B2BFD2F9D6B3}"/>
+    <hyperlink ref="H34" r:id="rId63" display="https://www.w3schools.com/sql/func_mysql_round.asp" xr:uid="{0DE752D3-48F4-4ACF-9BC2-18F3A2641139}"/>
+    <hyperlink ref="H35" r:id="rId64" display="https://www.w3schools.com/sql/func_mysql_sign.asp" xr:uid="{E54E09EE-CC16-4914-AB0A-C82B526716E4}"/>
+    <hyperlink ref="H36" r:id="rId65" display="https://www.w3schools.com/sql/func_mysql_sin.asp" xr:uid="{D22D44F1-F3A8-49CD-8355-E321A3F511A8}"/>
+    <hyperlink ref="H37" r:id="rId66" display="https://www.w3schools.com/sql/func_mysql_sqrt.asp" xr:uid="{2A469482-057A-4C0F-90A2-3034B43E334E}"/>
+    <hyperlink ref="H38" r:id="rId67" display="https://www.w3schools.com/sql/func_mysql_sum.asp" xr:uid="{82450295-B093-4017-A813-34FD964D5877}"/>
+    <hyperlink ref="H39" r:id="rId68" display="https://www.w3schools.com/sql/func_mysql_tan.asp" xr:uid="{D25D0D11-6B8E-41A7-A24A-9B1ADCB93991}"/>
+    <hyperlink ref="H40" r:id="rId69" display="https://www.w3schools.com/sql/func_mysql_truncate.asp" xr:uid="{FD9676BB-32D3-4EBE-9430-AEAF7B686A4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00528078-2650-419B-A141-A2BE392DD1D5}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:T53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="68" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="L2" s="80" t="s">
+        <v>566</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="70"/>
+    </row>
+    <row r="4" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="L4" s="83" t="s">
+        <v>567</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>568</v>
+      </c>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+    </row>
+    <row r="5" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="67" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="L5" s="86" t="s">
+        <v>569</v>
+      </c>
+      <c r="M5" s="87" t="s">
+        <v>570</v>
+      </c>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+    </row>
+    <row r="6" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="67" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="L6" s="86" t="s">
+        <v>571</v>
+      </c>
+      <c r="M6" s="87" t="s">
+        <v>572</v>
+      </c>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+    </row>
+    <row r="7" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="67" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="L7" s="85" t="s">
+        <v>573</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+    </row>
+    <row r="8" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="L8" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="M8" s="94" t="s">
+        <v>576</v>
+      </c>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+    </row>
+    <row r="9" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="67" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="L9" s="85" t="s">
+        <v>577</v>
+      </c>
+      <c r="M9" s="94" t="s">
+        <v>578</v>
+      </c>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+    </row>
+    <row r="10" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="L10" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="M10" s="57" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="67" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>581</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="M12" s="57" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="67" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>585</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="L15" s="82" t="s">
+        <v>588</v>
+      </c>
+      <c r="M15" s="58" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>590</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>592</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L18" s="86" t="s">
+        <v>594</v>
+      </c>
+      <c r="M18" s="87" t="s">
+        <v>595</v>
+      </c>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+    </row>
+    <row r="19" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="L19" s="86" t="s">
+        <v>596</v>
+      </c>
+      <c r="M19" s="87" t="s">
+        <v>597</v>
+      </c>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+    </row>
+    <row r="20" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="67" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="L20" s="81" t="s">
+        <v>598</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="L21" s="82" t="s">
+        <v>600</v>
+      </c>
+      <c r="M21" s="58" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="67" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="L22" s="81" t="s">
+        <v>602</v>
+      </c>
+      <c r="M22" s="57" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="L23" s="82" t="s">
+        <v>604</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="L24" s="81" t="s">
+        <v>605</v>
+      </c>
+      <c r="M24" s="57" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="67" t="s">
+        <v>479</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="L25" s="82" t="s">
+        <v>607</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="67" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="L26" s="81" t="s">
+        <v>609</v>
+      </c>
+      <c r="M26" s="57" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="L27" s="82" t="s">
+        <v>611</v>
+      </c>
+      <c r="M27" s="58" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="L28" s="81" t="s">
+        <v>613</v>
+      </c>
+      <c r="M28" s="57" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="L29" s="82" t="s">
+        <v>615</v>
+      </c>
+      <c r="M29" s="58" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="L30" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="M30" s="57" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="L31" s="82" t="s">
+        <v>619</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="L32" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="M32" s="57" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="L33" s="86" t="s">
+        <v>623</v>
+      </c>
+      <c r="M33" s="90" t="s">
+        <v>624</v>
+      </c>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="92"/>
+    </row>
+    <row r="34" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="L34" s="89" t="s">
+        <v>625</v>
+      </c>
+      <c r="M34" s="93" t="s">
+        <v>626</v>
+      </c>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="92"/>
+    </row>
+    <row r="35" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="67" t="s">
+        <v>496</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="67" t="s">
+        <v>522</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L4:M34">
+    <sortCondition ref="L4:L34"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/sql/func_mysql_adddate.asp" xr:uid="{6672439F-8C90-4C8D-8888-2F829E723556}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/sql/func_mysql_addtime.asp" xr:uid="{B04DF4C9-0477-4EF8-8118-0368F8469BB8}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/sql/func_mysql_curdate.asp" xr:uid="{C4BBAECF-46E2-435F-93E3-54969DFF032C}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/sql/func_mysql_current_date.asp" xr:uid="{642F9401-FD4C-4D90-8181-83A6F842BC69}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/sql/func_mysql_current_time.asp" xr:uid="{2085194D-A826-4289-9AD0-855592C70947}"/>
+    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/sql/func_mysql_current_timestamp.asp" xr:uid="{25EB9DED-FEB1-4814-81F4-8A31E9AB6AB9}"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/sql/func_mysql_curtime.asp" xr:uid="{5962A5F8-A97E-4B0D-A69A-AC9323B2B472}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/sql/func_mysql_date.asp" xr:uid="{E5B3E089-CF42-4E17-9411-BD966EB71A3E}"/>
+    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/sql/func_mysql_datediff.asp" xr:uid="{A05163B3-4A90-4764-A2E9-3A27FCECEE4F}"/>
+    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/sql/func_mysql_date_add.asp" xr:uid="{AF2AAFC6-9A18-45AF-AD66-F8DF834708E4}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/sql/func_mysql_date_format.asp" xr:uid="{C3B2B33D-2F52-4837-82F7-5B1C7938F896}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/sql/func_mysql_date_sub.asp" xr:uid="{59674473-2239-4672-9E1D-87693F27E19E}"/>
+    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/sql/func_mysql_day.asp" xr:uid="{90FE4155-190D-4C5E-912A-F47848DBE7C0}"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/sql/func_mysql_dayname.asp" xr:uid="{9C84EB26-4D00-42FC-9425-9BBDF52A6069}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/sql/func_mysql_dayofmonth.asp" xr:uid="{AB64B381-4B83-4916-A8DE-98C9236FFDAE}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/sql/func_mysql_dayofweek.asp" xr:uid="{6A12E4DB-F279-47E7-B755-87BA1BC33202}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/sql/func_mysql_dayofyear.asp" xr:uid="{33F3F417-E761-4591-AC7A-710010894E37}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/sql/func_mysql_extract.asp" xr:uid="{3729B953-4893-48C1-A744-8C9A8E254545}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/sql/func_mysql_from_days.asp" xr:uid="{41CC437B-BEAA-4EF0-8F1A-99B609149F69}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/sql/func_mysql_hour.asp" xr:uid="{363C0619-BD9C-4B55-B92E-E40D68597A7C}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/sql/func_mysql_last_day.asp" xr:uid="{BFC648E2-9606-4C7D-93CE-7B78C95C493E}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/sql/func_mysql_localtime.asp" xr:uid="{A53CC046-0CF7-4180-AEC7-C024FA02A995}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/sql/func_mysql_localtimestamp.asp" xr:uid="{BB908496-A21C-4A97-A83D-8B03DE011632}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/sql/func_mysql_makedate.asp" xr:uid="{EC25C8BD-C3F7-4763-8763-141BCD8E601B}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/sql/func_mysql_maketime.asp" xr:uid="{72678C9A-7CCD-4D4D-9902-45B3275AA796}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/sql/func_mysql_microsecond.asp" xr:uid="{E0298183-B837-4584-9B1E-B0589EFB53BB}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/sql/func_mysql_minute.asp" xr:uid="{90F106F5-64B4-4C02-878D-00FE963E0E6A}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/sql/func_mysql_month.asp" xr:uid="{A6C34EDB-BA4E-491F-85F7-7D625E4F1617}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/sql/func_mysql_monthname.asp" xr:uid="{ECC5AC15-B099-408C-8BAC-9B0FE8BF0EA9}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/sql/func_mysql_now.asp" xr:uid="{050F81FB-0C33-42CC-AC1E-4D052360303A}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/sql/func_mysql_period_add.asp" xr:uid="{F2B4DAFE-D1C3-4226-BD4B-963EE5023728}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/sql/func_mysql_period_diff.asp" xr:uid="{8BC84875-F9B7-449C-9BAD-2818D86AC782}"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/sql/func_mysql_quarter.asp" xr:uid="{F0074187-5C4F-41D8-B3BE-A0971213B2FA}"/>
+    <hyperlink ref="B37" r:id="rId34" display="https://www.w3schools.com/sql/func_mysql_second.asp" xr:uid="{8E8DFCF0-2707-45C0-91D0-34E58B95D1EC}"/>
+    <hyperlink ref="B38" r:id="rId35" display="https://www.w3schools.com/sql/func_mysql_sec_to_time.asp" xr:uid="{A6820765-3F1C-4AB0-8671-F6088E8A5F53}"/>
+    <hyperlink ref="B39" r:id="rId36" display="https://www.w3schools.com/sql/func_mysql_str_to_date.asp" xr:uid="{9BB8D98F-38F7-4450-9B91-01389A727EE0}"/>
+    <hyperlink ref="B40" r:id="rId37" display="https://www.w3schools.com/sql/func_mysql_subdate.asp" xr:uid="{2E69AE72-0AB9-4F72-A0E4-336029F58784}"/>
+    <hyperlink ref="B41" r:id="rId38" display="https://www.w3schools.com/sql/func_mysql_subtime.asp" xr:uid="{BA565EDA-4D4C-4905-B60C-DDECA39E96F8}"/>
+    <hyperlink ref="B42" r:id="rId39" display="https://www.w3schools.com/sql/func_mysql_sysdate.asp" xr:uid="{10F65A53-B9C1-4150-AD51-F015454345FF}"/>
+    <hyperlink ref="B43" r:id="rId40" display="https://www.w3schools.com/sql/func_mysql_time.asp" xr:uid="{EDB11893-67D1-4B68-A0BF-04EFDC2C2762}"/>
+    <hyperlink ref="B44" r:id="rId41" display="https://www.w3schools.com/sql/func_mysql_time_format.asp" xr:uid="{956BCC2C-F6C8-4986-A8A6-0F88D2657E26}"/>
+    <hyperlink ref="B45" r:id="rId42" display="https://www.w3schools.com/sql/func_mysql_time_to_sec.asp" xr:uid="{2B678C58-5EBF-42CC-BA25-079DF28CA58C}"/>
+    <hyperlink ref="B46" r:id="rId43" display="https://www.w3schools.com/sql/func_mysql_timediff.asp" xr:uid="{81617665-3ADA-463C-8E12-E348B72ECD00}"/>
+    <hyperlink ref="B47" r:id="rId44" display="https://www.w3schools.com/sql/func_mysql_timestamp.asp" xr:uid="{1F154406-BF0D-48E8-B848-57439EEA086F}"/>
+    <hyperlink ref="B48" r:id="rId45" display="https://www.w3schools.com/sql/func_mysql_to_days.asp" xr:uid="{12CC2718-BD13-4EFE-8423-E0BB3866151C}"/>
+    <hyperlink ref="B49" r:id="rId46" display="https://www.w3schools.com/sql/func_mysql_week.asp" xr:uid="{F36A0F3F-CF17-4CEF-8B54-CB041787B838}"/>
+    <hyperlink ref="B50" r:id="rId47" display="https://www.w3schools.com/sql/func_mysql_weekday.asp" xr:uid="{BF762861-489C-42D3-AFA0-AD91B2CC82DF}"/>
+    <hyperlink ref="B51" r:id="rId48" display="https://www.w3schools.com/sql/func_mysql_weekofyear.asp" xr:uid="{69DF8DB6-82D8-4E77-B398-A442F67982DF}"/>
+    <hyperlink ref="B52" r:id="rId49" display="https://www.w3schools.com/sql/func_mysql_year.asp" xr:uid="{6CE97D96-387D-471C-A0F2-0D51314220DA}"/>
+    <hyperlink ref="B53" r:id="rId50" display="https://www.w3schools.com/sql/func_mysql_yearweek.asp" xr:uid="{FEDB6AF2-95A4-4377-9AEF-C93F59F868B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F810F34D-9528-4587-A350-A7815684E346}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B4:D24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="55"/>
+    </row>
+    <row r="5" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="70"/>
+    </row>
+    <row r="6" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="69" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="69" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="69" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="69" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="69" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="69" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="69" t="s">
+        <v>554</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="69" t="s">
+        <v>556</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="69" t="s">
+        <v>558</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="69" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="69" t="s">
+        <v>564</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="https://www.w3schools.com/sql/func_mysql_bin.asp" xr:uid="{9AE7F718-4A66-440E-9854-F2F2D8B8D09F}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://www.w3schools.com/sql/func_mysql_binary.asp" xr:uid="{1113AF43-6C27-4217-8956-A54EDF88E5CD}"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://www.w3schools.com/sql/func_mysql_case.asp" xr:uid="{B709128D-489E-4D40-92D7-9B8FB33ACF85}"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://www.w3schools.com/sql/func_mysql_cast.asp" xr:uid="{D0B5D680-7B46-4CD9-B13D-529F88060B88}"/>
+    <hyperlink ref="B10" r:id="rId5" display="https://www.w3schools.com/sql/func_mysql_coalesce.asp" xr:uid="{EA668B36-B25B-4FE7-BC5A-86B6BA1210A6}"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://www.w3schools.com/sql/func_mysql_connection_id.asp" xr:uid="{3AC92FEA-0795-4ECB-AC25-F37D3213C66F}"/>
+    <hyperlink ref="B12" r:id="rId7" display="https://www.w3schools.com/sql/func_mysql_conv.asp" xr:uid="{AE31FE08-ABF7-45D9-A04E-62002546041E}"/>
+    <hyperlink ref="B13" r:id="rId8" display="https://www.w3schools.com/sql/func_mysql_convert.asp" xr:uid="{86AC463A-1524-41DB-9F56-8B2F27C1D0B3}"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://www.w3schools.com/sql/func_mysql_current_user.asp" xr:uid="{3F621600-72D5-448B-B5D2-D055DCB83B11}"/>
+    <hyperlink ref="B15" r:id="rId10" display="https://www.w3schools.com/sql/func_mysql_database.asp" xr:uid="{FA57C8DA-6393-40D0-9C3E-147B3CB9068F}"/>
+    <hyperlink ref="B16" r:id="rId11" display="https://www.w3schools.com/sql/func_mysql_if.asp" xr:uid="{649D3B90-2CF4-4336-AA8A-C2A5F62857B7}"/>
+    <hyperlink ref="B17" r:id="rId12" display="https://www.w3schools.com/sql/func_mysql_ifnull.asp" xr:uid="{6AB0F2AD-D130-4D8D-A646-E24CECB638FA}"/>
+    <hyperlink ref="B18" r:id="rId13" display="https://www.w3schools.com/sql/func_mysql_isnull.asp" xr:uid="{94BB72B8-D40C-4D92-B850-7B35F72B15CA}"/>
+    <hyperlink ref="B19" r:id="rId14" display="https://www.w3schools.com/sql/func_mysql_last_insert_id.asp" xr:uid="{A3EBCED0-F06D-4707-8E1A-67C6A8CC16F0}"/>
+    <hyperlink ref="B20" r:id="rId15" display="https://www.w3schools.com/sql/func_mysql_nullif.asp" xr:uid="{1E81FBC1-8FDA-43F3-81D0-57AA30ED39AE}"/>
+    <hyperlink ref="B21" r:id="rId16" display="https://www.w3schools.com/sql/func_mysql_session_user.asp" xr:uid="{96142C23-8C00-4E72-B719-25AD4ED33442}"/>
+    <hyperlink ref="B22" r:id="rId17" display="https://www.w3schools.com/sql/func_mysql_system_user.asp" xr:uid="{374C6965-30D5-4C49-AFF5-A83C309641C8}"/>
+    <hyperlink ref="B23" r:id="rId18" display="https://www.w3schools.com/sql/func_mysql_user.asp" xr:uid="{C3300040-F27A-4090-A372-E0A1C085182B}"/>
+    <hyperlink ref="B24" r:id="rId19" display="https://www.w3schools.com/sql/func_mysql_version.asp" xr:uid="{618451C8-DBE5-4E83-AD66-81872559639B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5090,151 +8058,151 @@
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>41</v>
+      <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="33" t="s">
-        <v>42</v>
+      <c r="H3" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="33"/>
-      <c r="H4" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>44</v>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H5" s="33" t="s">
-        <v>45</v>
+      <c r="H5" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F8" s="33" t="s">
+    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F9" s="33" t="s">
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="31"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="31"/>
-      <c r="D16" s="33" t="s">
-        <v>42</v>
+      <c r="B16" s="17"/>
+      <c r="D16" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="33" t="s">
-        <v>43</v>
+      <c r="D17" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="33" t="s">
-        <v>45</v>
+      <c r="D18" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="33"/>
-      <c r="N19" s="36">
+      <c r="D19" s="19"/>
+      <c r="N19" s="22">
         <f>4623-42</f>
         <v>4581</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="33"/>
-      <c r="E20" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>62</v>
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5243,493 +8211,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="20">
-        <v>2</v>
-      </c>
-      <c r="F10" s="21">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="20">
-        <v>3</v>
-      </c>
-      <c r="F11" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="23">
-        <v>4</v>
-      </c>
-      <c r="F12" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="26">
-        <v>8</v>
-      </c>
-      <c r="N16" s="27">
-        <v>60</v>
-      </c>
-      <c r="O16" s="27">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N17" s="27">
-        <v>30</v>
-      </c>
-      <c r="O17" s="27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="27">
-        <v>90</v>
-      </c>
-      <c r="O18" s="27">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="18">
-        <v>1</v>
-      </c>
-      <c r="F23" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="20">
-        <v>2</v>
-      </c>
-      <c r="F24" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="20">
-        <v>3</v>
-      </c>
-      <c r="F25" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="23">
-        <v>4</v>
-      </c>
-      <c r="F26" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="27">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="C1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:8" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>-128</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>127</v>
-      </c>
-      <c r="H5" s="14">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14">
-        <v>-32768</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>32767</v>
-      </c>
-      <c r="H6" s="14">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="14">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>-8388608</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>8388607</v>
-      </c>
-      <c r="H7" s="14">
-        <v>16777215</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14">
-        <v>-2147483648</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>2147483647</v>
-      </c>
-      <c r="H8" s="14">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="14">
-        <v>8</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="D1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.109375" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="5">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="5">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="7"/>
-      <c r="E16" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Notes SQL.xlsx
+++ b/Notes SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4450D831-38E8-46B4-A6B2-43660DEFB581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC365B-AF82-4FF3-A32C-9E0698D53B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="0" windowWidth="12024" windowHeight="12336" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbms" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="keywords" sheetId="4" r:id="rId5"/>
     <sheet name="functions" sheetId="6" r:id="rId6"/>
     <sheet name="date functions" sheetId="10" r:id="rId7"/>
-    <sheet name="advanced func" sheetId="11" r:id="rId8"/>
-    <sheet name="summary" sheetId="5" r:id="rId9"/>
-    <sheet name="data type" sheetId="7" r:id="rId10"/>
-    <sheet name="sqlalchemy" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId8"/>
+    <sheet name="advanced func" sheetId="11" r:id="rId9"/>
+    <sheet name="summary" sheetId="5" r:id="rId10"/>
+    <sheet name="data type" sheetId="7" r:id="rId11"/>
+    <sheet name="sqlalchemy" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="631">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2795,6 +2796,18 @@
   </si>
   <si>
     <t>Year as a numeric, 2-digit value</t>
+  </si>
+  <si>
+    <t>idli, vada, puri…..</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
+    <t>(alu. Tmoota, bira, )</t>
+  </si>
+  <si>
+    <t>(alu fry, tamota pappu, charu,)</t>
   </si>
 </sst>
 </file>
@@ -3578,7 +3591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3710,37 +3723,6 @@
     <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3750,14 +3732,13 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3784,7 +3765,6 @@
     <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3840,6 +3820,36 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4610,16 +4620,16 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="36"/>
@@ -4628,14 +4638,14 @@
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
       <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4677,16 +4687,16 @@
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="84" t="s">
         <v>264</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="33" t="s">
@@ -4696,14 +4706,14 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="33"/>
@@ -4713,80 +4723,80 @@
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
       <c r="J13" s="25" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="J14" s="50" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="J14" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
       <c r="U14" s="39"/>
     </row>
     <row r="15" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
       <c r="U15" s="39"/>
     </row>
     <row r="16" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -4833,72 +4843,72 @@
       </c>
     </row>
     <row r="22" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
       <c r="N22" s="16" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
       <c r="N23" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
       <c r="N24" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="90"/>
     </row>
     <row r="27" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="91" t="s">
         <v>279</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
       <c r="N27" s="40" t="s">
         <v>280</v>
       </c>
@@ -4907,14 +4917,14 @@
       </c>
     </row>
     <row r="28" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
       <c r="N28" s="41" t="s">
         <v>282</v>
       </c>
@@ -4931,16 +4941,16 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="90"/>
       <c r="N30" s="16" t="s">
         <v>286</v>
       </c>
@@ -4949,16 +4959,16 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
       <c r="N31" s="16" t="s">
         <v>289</v>
       </c>
@@ -4967,14 +4977,14 @@
       </c>
     </row>
     <row r="32" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
       <c r="T32" s="16" t="s">
         <v>291</v>
       </c>
@@ -5064,16 +5074,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C23:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J28"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J32"/>
     <mergeCell ref="J6:Q7"/>
     <mergeCell ref="J10:Q11"/>
     <mergeCell ref="A13:H16"/>
     <mergeCell ref="J14:P16"/>
     <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J28"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5081,6 +5091,180 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="D16" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="19"/>
+      <c r="N19" s="22">
+        <f>4623-42</f>
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="19"/>
+      <c r="E20" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+    </row>
+    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5230,7 +5414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6389,37 +6573,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="76" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="I3" s="48"/>
       <c r="J3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="60" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="50" t="s">
         <v>56</v>
       </c>
       <c r="J4"/>
@@ -6427,16 +6611,16 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="52" t="s">
         <v>372</v>
       </c>
       <c r="J5"/>
@@ -6444,16 +6628,16 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="52" t="s">
         <v>374</v>
       </c>
       <c r="J6"/>
@@ -6461,16 +6645,16 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="52" t="s">
         <v>376</v>
       </c>
       <c r="J7"/>
@@ -6478,16 +6662,16 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="52" t="s">
         <v>378</v>
       </c>
       <c r="J8"/>
@@ -6495,16 +6679,16 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="52" t="s">
         <v>380</v>
       </c>
       <c r="J9"/>
@@ -6512,16 +6696,16 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="52" t="s">
         <v>382</v>
       </c>
       <c r="J10"/>
@@ -6529,16 +6713,16 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="52" t="s">
         <v>384</v>
       </c>
       <c r="J11"/>
@@ -6546,16 +6730,16 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="52" t="s">
         <v>384</v>
       </c>
       <c r="J12"/>
@@ -6563,16 +6747,16 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="52" t="s">
         <v>387</v>
       </c>
       <c r="J13"/>
@@ -6580,16 +6764,16 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="52" t="s">
         <v>389</v>
       </c>
       <c r="J14"/>
@@ -6597,16 +6781,16 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="52" t="s">
         <v>391</v>
       </c>
       <c r="J15"/>
@@ -6614,16 +6798,16 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="52" t="s">
         <v>393</v>
       </c>
       <c r="J16"/>
@@ -6631,16 +6815,16 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="52" t="s">
         <v>395</v>
       </c>
       <c r="J17"/>
@@ -6648,16 +6832,16 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I18" s="52" t="s">
         <v>397</v>
       </c>
       <c r="J18"/>
@@ -6665,16 +6849,16 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="57" t="s">
         <v>398</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="52" t="s">
         <v>399</v>
       </c>
       <c r="J19"/>
@@ -6682,16 +6866,16 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="64" t="s">
         <v>338</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="77" t="s">
+      <c r="H20" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="52" t="s">
         <v>401</v>
       </c>
       <c r="J20"/>
@@ -6699,16 +6883,16 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="52" t="s">
         <v>403</v>
       </c>
       <c r="J21"/>
@@ -6716,16 +6900,16 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="52" t="s">
         <v>405</v>
       </c>
       <c r="J22"/>
@@ -6733,16 +6917,16 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="52" t="s">
         <v>407</v>
       </c>
       <c r="J23"/>
@@ -6750,16 +6934,16 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="52" t="s">
         <v>409</v>
       </c>
       <c r="J24"/>
@@ -6767,16 +6951,16 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="I25" s="64" t="s">
+      <c r="I25" s="52" t="s">
         <v>411</v>
       </c>
       <c r="J25"/>
@@ -6784,16 +6968,16 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="H26" s="77" t="s">
+      <c r="H26" s="64" t="s">
         <v>412</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="I26" s="52" t="s">
         <v>413</v>
       </c>
       <c r="J26"/>
@@ -6801,16 +6985,16 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="I27" s="64" t="s">
+      <c r="I27" s="52" t="s">
         <v>415</v>
       </c>
       <c r="J27"/>
@@ -6818,16 +7002,16 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="64" t="s">
         <v>416</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="52" t="s">
         <v>417</v>
       </c>
       <c r="J28"/>
@@ -6835,16 +7019,16 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="57" t="s">
         <v>418</v>
       </c>
-      <c r="I29" s="64" t="s">
+      <c r="I29" s="52" t="s">
         <v>419</v>
       </c>
       <c r="J29"/>
@@ -6852,16 +7036,16 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="H30" s="77" t="s">
+      <c r="H30" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="I30" s="52" t="s">
         <v>421</v>
       </c>
       <c r="J30"/>
@@ -6869,16 +7053,16 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="52" t="s">
         <v>421</v>
       </c>
       <c r="J31"/>
@@ -6886,16 +7070,16 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="64" t="s">
         <v>423</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="I32" s="52" t="s">
         <v>424</v>
       </c>
       <c r="J32"/>
@@ -6903,16 +7087,16 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="I33" s="64" t="s">
+      <c r="I33" s="52" t="s">
         <v>426</v>
       </c>
       <c r="J33"/>
@@ -6920,16 +7104,16 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="H34" s="77" t="s">
+      <c r="H34" s="64" t="s">
         <v>427</v>
       </c>
-      <c r="I34" s="64" t="s">
+      <c r="I34" s="52" t="s">
         <v>428</v>
       </c>
       <c r="J34"/>
@@ -6937,16 +7121,16 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="52" t="s">
         <v>366</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="I35" s="64" t="s">
+      <c r="I35" s="52" t="s">
         <v>430</v>
       </c>
       <c r="J35"/>
@@ -6954,16 +7138,16 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="I36" s="64" t="s">
+      <c r="I36" s="52" t="s">
         <v>432</v>
       </c>
       <c r="J36"/>
@@ -6971,16 +7155,16 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="I37" s="64" t="s">
+      <c r="I37" s="52" t="s">
         <v>434</v>
       </c>
       <c r="J37"/>
@@ -6988,12 +7172,10 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="H38" s="77" t="s">
+      <c r="H38" s="64" t="s">
         <v>435</v>
       </c>
-      <c r="I38" s="64" t="s">
+      <c r="I38" s="52" t="s">
         <v>436</v>
       </c>
       <c r="J38"/>
@@ -7001,12 +7183,10 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="I39" s="64" t="s">
+      <c r="I39" s="52" t="s">
         <v>438</v>
       </c>
       <c r="J39"/>
@@ -7014,10 +7194,10 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="I40" s="64" t="s">
+      <c r="I40" s="52" t="s">
         <v>439</v>
       </c>
       <c r="J40"/>
@@ -7107,8 +7287,8 @@
   </sheetPr>
   <dimension ref="B1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7118,655 +7298,654 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="67" t="s">
         <v>566</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="55" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="70" t="s">
         <v>567</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
     </row>
     <row r="5" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="55" t="s">
         <v>443</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="73" t="s">
         <v>569</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="74" t="s">
         <v>570</v>
       </c>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
     </row>
     <row r="6" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="55" t="s">
         <v>445</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="52" t="s">
         <v>446</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="73" t="s">
         <v>571</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="74" t="s">
         <v>572</v>
       </c>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
     </row>
     <row r="7" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="55" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="52" t="s">
         <v>446</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="72" t="s">
         <v>573</v>
       </c>
-      <c r="M7" s="94" t="s">
+      <c r="M7" s="81" t="s">
         <v>574</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
     </row>
     <row r="8" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="55" t="s">
         <v>448</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="73" t="s">
         <v>575</v>
       </c>
-      <c r="M8" s="94" t="s">
+      <c r="M8" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
     </row>
     <row r="9" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="72" t="s">
         <v>577</v>
       </c>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="81" t="s">
         <v>578</v>
       </c>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
     </row>
     <row r="10" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="55" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="L10" s="81" t="s">
+      <c r="L10" s="68" t="s">
         <v>579</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="46" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="55" t="s">
         <v>453</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="52" t="s">
         <v>454</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="69" t="s">
         <v>581</v>
       </c>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="47" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L12" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="46" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="L13" s="82" t="s">
+      <c r="L13" s="69" t="s">
         <v>585</v>
       </c>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="47" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="68" t="s">
         <v>586</v>
       </c>
-      <c r="M14" s="57" t="s">
+      <c r="M14" s="46" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="L15" s="82" t="s">
+      <c r="L15" s="69" t="s">
         <v>588</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="47" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="L16" s="68" t="s">
         <v>590</v>
       </c>
-      <c r="M16" s="57" t="s">
+      <c r="M16" s="46" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="55" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="L17" s="82" t="s">
+      <c r="L17" s="69" t="s">
         <v>592</v>
       </c>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="47" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="55" t="s">
         <v>466</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="73" t="s">
         <v>594</v>
       </c>
-      <c r="M18" s="87" t="s">
+      <c r="M18" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
     </row>
     <row r="19" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="L19" s="86" t="s">
+      <c r="L19" s="73" t="s">
         <v>596</v>
       </c>
-      <c r="M19" s="87" t="s">
+      <c r="M19" s="74" t="s">
         <v>597</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
     </row>
     <row r="20" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="55" t="s">
         <v>469</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="L20" s="81" t="s">
+      <c r="L20" s="68" t="s">
         <v>598</v>
       </c>
-      <c r="M20" s="57" t="s">
+      <c r="M20" s="46" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="55" t="s">
         <v>471</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L21" s="69" t="s">
         <v>600</v>
       </c>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="47" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="L22" s="81" t="s">
+      <c r="L22" s="68" t="s">
         <v>602</v>
       </c>
-      <c r="M22" s="57" t="s">
+      <c r="M22" s="46" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="55" t="s">
         <v>475</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="69" t="s">
         <v>604</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="47" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="L24" s="81" t="s">
+      <c r="L24" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="M24" s="57" t="s">
+      <c r="M24" s="46" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="55" t="s">
         <v>479</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="L25" s="82" t="s">
+      <c r="L25" s="69" t="s">
         <v>607</v>
       </c>
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="47" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="L26" s="81" t="s">
+      <c r="L26" s="68" t="s">
         <v>609</v>
       </c>
-      <c r="M26" s="57" t="s">
+      <c r="M26" s="46" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="55" t="s">
         <v>481</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="52" t="s">
         <v>482</v>
       </c>
-      <c r="L27" s="82" t="s">
+      <c r="L27" s="69" t="s">
         <v>611</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M27" s="47" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="L28" s="81" t="s">
+      <c r="L28" s="68" t="s">
         <v>613</v>
       </c>
-      <c r="M28" s="57" t="s">
+      <c r="M28" s="46" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="L29" s="82" t="s">
+      <c r="L29" s="69" t="s">
         <v>615</v>
       </c>
-      <c r="M29" s="58" t="s">
+      <c r="M29" s="47" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="55" t="s">
         <v>487</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="L30" s="81" t="s">
+      <c r="L30" s="68" t="s">
         <v>617</v>
       </c>
-      <c r="M30" s="57" t="s">
+      <c r="M30" s="46" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="52" t="s">
         <v>490</v>
       </c>
-      <c r="L31" s="82" t="s">
+      <c r="L31" s="69" t="s">
         <v>619</v>
       </c>
-      <c r="M31" s="58" t="s">
+      <c r="M31" s="47" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="52" t="s">
         <v>492</v>
       </c>
-      <c r="L32" s="81" t="s">
+      <c r="L32" s="68" t="s">
         <v>621</v>
       </c>
-      <c r="M32" s="57" t="s">
+      <c r="M32" s="46" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="L33" s="86" t="s">
+      <c r="L33" s="73" t="s">
         <v>623</v>
       </c>
-      <c r="M33" s="90" t="s">
+      <c r="M33" s="77" t="s">
         <v>624</v>
       </c>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="79"/>
     </row>
     <row r="34" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="52" t="s">
         <v>495</v>
       </c>
-      <c r="L34" s="89" t="s">
+      <c r="L34" s="76" t="s">
         <v>625</v>
       </c>
-      <c r="M34" s="93" t="s">
+      <c r="M34" s="80" t="s">
         <v>626</v>
       </c>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="92"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
     </row>
     <row r="35" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="55" t="s">
         <v>496</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="52" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="52" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="55" t="s">
         <v>500</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="52" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="52" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="55" t="s">
         <v>504</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="52" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="52" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="52" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="55" t="s">
         <v>509</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="52" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="55" t="s">
         <v>510</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="52" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="55" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="52" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="52" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="55" t="s">
         <v>516</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="52" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="55" t="s">
         <v>518</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="52" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="52" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="55" t="s">
         <v>522</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="52" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="52" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="55" t="s">
         <v>526</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="52" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="55" t="s">
         <v>527</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="52" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="52" t="s">
         <v>530</v>
       </c>
     </row>
@@ -7831,6 +8010,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAE157B-BAB6-43DF-B9A3-6F48D4D75F6A}">
+  <dimension ref="H3:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>627</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>628</v>
+      </c>
+      <c r="J5" t="s">
+        <v>629</v>
+      </c>
+      <c r="L5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="19" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <f>600/140</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="R19">
+        <f>8/25</f>
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F810F34D-9528-4587-A350-A7815684E346}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -7847,169 +8085,168 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="56" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="55"/>
     </row>
     <row r="5" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="52" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="52" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="52" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="52" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="52" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="52" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="52" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="57" t="s">
         <v>545</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="52" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="52" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="52" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="52" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="57" t="s">
         <v>552</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="52" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="52" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="52" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="52" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="52" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="57" t="s">
         <v>562</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="52" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="57" t="s">
         <v>563</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="52" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="52" t="s">
         <v>565</v>
       </c>
     </row>
@@ -8037,178 +8274,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="17"/>
-      <c r="D16" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="19"/>
-      <c r="N19" s="22">
-        <f>4623-42</f>
-        <v>4581</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="19"/>
-      <c r="E20" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-    </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E20:H20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Notes SQL.xlsx
+++ b/Notes SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC365B-AF82-4FF3-A32C-9E0698D53B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7068D4-95FD-4810-B4A1-D222D2846084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbms" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,17 @@
     <sheet name="keywords" sheetId="4" r:id="rId5"/>
     <sheet name="functions" sheetId="6" r:id="rId6"/>
     <sheet name="date functions" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId8"/>
-    <sheet name="advanced func" sheetId="11" r:id="rId9"/>
-    <sheet name="summary" sheetId="5" r:id="rId10"/>
-    <sheet name="data type" sheetId="7" r:id="rId11"/>
-    <sheet name="sqlalchemy" sheetId="8" r:id="rId12"/>
+    <sheet name="advanced func" sheetId="11" r:id="rId8"/>
+    <sheet name="summary" sheetId="5" r:id="rId9"/>
+    <sheet name="data type" sheetId="7" r:id="rId10"/>
+    <sheet name="sqlalchemy" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="572">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -218,463 +217,205 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>Adds a column in an existing table</t>
-  </si>
-  <si>
-    <t>ADD CONSTRAINT</t>
-  </si>
-  <si>
-    <t>Adds a constraint after a table is already created</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>Returns true if all of the subquery values meet the condition</t>
-  </si>
-  <si>
     <t>ALTER</t>
   </si>
   <si>
-    <t>Adds, deletes, or modifies columns in a table, or changes the data type of a column in a table</t>
-  </si>
-  <si>
     <t>ALTER COLUMN</t>
   </si>
   <si>
-    <t>Changes the data type of a column in a table</t>
-  </si>
-  <si>
     <t>ALTER TABLE</t>
   </si>
   <si>
-    <t>Adds, deletes, or modifies columns in a table</t>
-  </si>
-  <si>
     <t>AND</t>
   </si>
   <si>
-    <t>Only includes rows where both conditions is true</t>
-  </si>
-  <si>
     <t>ANY</t>
   </si>
   <si>
-    <t>Returns true if any of the subquery values meet the condition</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
-    <t>Renames a column or table with an alias</t>
-  </si>
-  <si>
     <t>ASC</t>
   </si>
   <si>
-    <t>Sorts the result set in ascending order</t>
-  </si>
-  <si>
     <t>BACKUP DATABASE</t>
   </si>
   <si>
-    <t>Creates a back up of an existing database</t>
-  </si>
-  <si>
     <t>BETWEEN</t>
   </si>
   <si>
-    <t>Selects values within a given range</t>
-  </si>
-  <si>
     <t>CASE</t>
   </si>
   <si>
-    <t>Creates different outputs based on conditions</t>
-  </si>
-  <si>
-    <t>CHECK</t>
-  </si>
-  <si>
-    <t>A constraint that limits the value that can be placed in a column</t>
-  </si>
-  <si>
-    <t>COLUMN</t>
-  </si>
-  <si>
-    <t>Changes the data type of a column or deletes a column in a table</t>
-  </si>
-  <si>
-    <t>CONSTRAINT</t>
-  </si>
-  <si>
-    <t>Adds or deletes a constraint</t>
-  </si>
-  <si>
     <t>CREATE</t>
   </si>
   <si>
-    <t>Creates a database, index, view, table, or procedure</t>
-  </si>
-  <si>
     <t>CREATE DATABASE</t>
   </si>
   <si>
-    <t>Creates a new SQL database</t>
-  </si>
-  <si>
     <t>CREATE INDEX</t>
   </si>
   <si>
-    <t>Creates an index on a table (allows duplicate values)</t>
-  </si>
-  <si>
     <t>CREATE OR REPLACE VIEW</t>
   </si>
   <si>
-    <t>Updates a view</t>
-  </si>
-  <si>
     <t>CREATE TABLE</t>
   </si>
   <si>
-    <t>Creates a new table in the database</t>
-  </si>
-  <si>
     <t>CREATE PROCEDURE</t>
   </si>
   <si>
-    <t>Creates a stored procedure</t>
-  </si>
-  <si>
     <t>CREATE UNIQUE INDEX</t>
   </si>
   <si>
-    <t>Creates a unique index on a table (no duplicate values)</t>
-  </si>
-  <si>
     <t>CREATE VIEW</t>
   </si>
   <si>
-    <t>Creates a view based on the result set of a SELECT statement</t>
-  </si>
-  <si>
     <t>DATABASE</t>
   </si>
   <si>
-    <t>Creates or deletes an SQL database</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>A constraint that provides a default value for a column</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>Deletes rows from a table</t>
-  </si>
-  <si>
     <t>DESC</t>
   </si>
   <si>
-    <t>Sorts the result set in descending order</t>
-  </si>
-  <si>
     <t>DISTINCT</t>
   </si>
   <si>
-    <t>Selects only distinct (different) values</t>
-  </si>
-  <si>
     <t>DROP</t>
   </si>
   <si>
-    <t>Deletes a column, constraint, database, index, table, or view</t>
-  </si>
-  <si>
-    <t>DROP COLUMN</t>
-  </si>
-  <si>
-    <t>Deletes a column in a table</t>
-  </si>
-  <si>
-    <t>DROP CONSTRAINT</t>
-  </si>
-  <si>
-    <t>Deletes a UNIQUE, PRIMARY KEY, FOREIGN KEY, or CHECK constraint</t>
-  </si>
-  <si>
     <t>DROP DATABASE</t>
   </si>
   <si>
-    <t>Deletes an existing SQL database</t>
-  </si>
-  <si>
     <t>DROP DEFAULT</t>
   </si>
   <si>
-    <t>Deletes a DEFAULT constraint</t>
-  </si>
-  <si>
     <t>DROP INDEX</t>
   </si>
   <si>
-    <t>Deletes an index in a table</t>
-  </si>
-  <si>
     <t>DROP TABLE</t>
   </si>
   <si>
-    <t>Deletes an existing table in the database</t>
-  </si>
-  <si>
     <t>DROP VIEW</t>
   </si>
   <si>
-    <t>Deletes a view</t>
-  </si>
-  <si>
     <t>EXEC</t>
   </si>
   <si>
-    <t>Executes a stored procedure</t>
-  </si>
-  <si>
     <t>EXISTS</t>
   </si>
   <si>
-    <t>Tests for the existence of any record in a subquery</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY</t>
-  </si>
-  <si>
-    <t>A constraint that is a key used to link two tables together</t>
-  </si>
-  <si>
     <t>FROM</t>
   </si>
   <si>
-    <t>Specifies which table to select or delete data from</t>
-  </si>
-  <si>
     <t>FULL OUTER JOIN</t>
   </si>
   <si>
-    <t>Returns all rows when there is a match in either left table or right table</t>
-  </si>
-  <si>
     <t>GROUP BY</t>
   </si>
   <si>
-    <t>Groups the result set (used with aggregate functions: COUNT, MAX, MIN, SUM, AVG)</t>
-  </si>
-  <si>
     <t>HAVING</t>
   </si>
   <si>
-    <t>Used instead of WHERE with aggregate functions</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
-    <t>Allows you to specify multiple values in a WHERE clause</t>
-  </si>
-  <si>
     <t>INDEX</t>
   </si>
   <si>
-    <t>Creates or deletes an index in a table</t>
-  </si>
-  <si>
     <t>INNER JOIN</t>
   </si>
   <si>
-    <t>Returns rows that have matching values in both tables</t>
-  </si>
-  <si>
     <t>INSERT INTO</t>
   </si>
   <si>
-    <t>Inserts new rows in a table</t>
-  </si>
-  <si>
     <t>INSERT INTO SELECT</t>
   </si>
   <si>
-    <t>Copies data from one table into another table</t>
-  </si>
-  <si>
     <t>IS NULL</t>
   </si>
   <si>
-    <t>Tests for empty values</t>
-  </si>
-  <si>
     <t>IS NOT NULL</t>
   </si>
   <si>
-    <t>Tests for non-empty values</t>
-  </si>
-  <si>
     <t>JOIN</t>
   </si>
   <si>
-    <t>Joins tables</t>
-  </si>
-  <si>
     <t>LEFT JOIN</t>
   </si>
   <si>
-    <t>Returns all rows from the left table, and the matching rows from the right table</t>
-  </si>
-  <si>
     <t>LIKE</t>
   </si>
   <si>
-    <t>Searches for a specified pattern in a column</t>
-  </si>
-  <si>
     <t>LIMIT</t>
   </si>
   <si>
-    <t>Specifies the number of records to return in the result set</t>
-  </si>
-  <si>
     <t>NOT</t>
   </si>
   <si>
-    <t>Only includes rows where a condition is not true</t>
-  </si>
-  <si>
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>A constraint that enforces a column to not accept NULL values</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>Includes rows where either condition is true</t>
-  </si>
-  <si>
     <t>ORDER BY</t>
   </si>
   <si>
-    <t>Sorts the result set in ascending or descending order</t>
-  </si>
-  <si>
     <t>OUTER JOIN</t>
   </si>
   <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
-    <t>A constraint that uniquely identifies each record in a database table</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
-    <t>A stored procedure</t>
-  </si>
-  <si>
     <t>RIGHT JOIN</t>
   </si>
   <si>
-    <t>Returns all rows from the right table, and the matching rows from the left table</t>
-  </si>
-  <si>
     <t>ROWNUM</t>
   </si>
   <si>
     <t>SELECT</t>
   </si>
   <si>
-    <t>Selects data from a database</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT</t>
   </si>
   <si>
     <t>SELECT INTO</t>
   </si>
   <si>
-    <t>Copies data from one table into a new table</t>
-  </si>
-  <si>
     <t>SELECT TOP</t>
   </si>
   <si>
     <t>SET</t>
   </si>
   <si>
-    <t>Specifies which columns and values that should be updated in a table</t>
-  </si>
-  <si>
     <t>TABLE</t>
   </si>
   <si>
-    <t>Creates a table, or adds, deletes, or modifies columns in a table, or deletes a table or data inside a table</t>
-  </si>
-  <si>
-    <t>TOP</t>
-  </si>
-  <si>
     <t>TRUNCATE TABLE</t>
   </si>
   <si>
-    <t>Deletes the data inside a table, but not the table itself</t>
-  </si>
-  <si>
     <t>UNION</t>
   </si>
   <si>
-    <t>Combines the result set of two or more SELECT statements (only distinct values)</t>
-  </si>
-  <si>
     <t>UNION ALL</t>
   </si>
   <si>
-    <t>Combines the result set of two or more SELECT statements (allows duplicate values)</t>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-  </si>
-  <si>
-    <t>A constraint that ensures that all values in a column are unique</t>
-  </si>
-  <si>
     <t>UPDATE</t>
   </si>
   <si>
-    <t>Updates existing rows in a table</t>
-  </si>
-  <si>
     <t>VALUES</t>
   </si>
   <si>
-    <t>Specifies the values of an INSERT INTO statement</t>
-  </si>
-  <si>
     <t>VIEW</t>
   </si>
   <si>
-    <t>Creates, updates, or deletes a view</t>
-  </si>
-  <si>
     <t>WHERE</t>
-  </si>
-  <si>
-    <t>Filters a result set to include only records that fulfill a specified condition</t>
   </si>
   <si>
     <t>SELECT - extracts data from a database</t>
@@ -2798,23 +2539,311 @@
     <t>Year as a numeric, 2-digit value</t>
   </si>
   <si>
-    <t>idli, vada, puri…..</t>
-  </si>
-  <si>
-    <t>veg</t>
-  </si>
-  <si>
-    <t>(alu. Tmoota, bira, )</t>
-  </si>
-  <si>
-    <t>(alu fry, tamota pappu, charu,)</t>
+    <t>usage cond</t>
+  </si>
+  <si>
+    <t>---&gt;  ADD CONSTRAINT</t>
+  </si>
+  <si>
+    <t>---&gt;  ADD COLUMN</t>
+  </si>
+  <si>
+    <t>Analsys cond</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>---&gt;  DROP COLUMN</t>
+  </si>
+  <si>
+    <t>---&gt;  DROP CONSTRAINT</t>
+  </si>
+  <si>
+    <t>---&gt;  DEFAULT</t>
+  </si>
+  <si>
+    <t>---&gt;  FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>---&gt;  PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>---&gt;  UNIQUE</t>
+  </si>
+  <si>
+    <t>---&gt;  CHECK</t>
+  </si>
+  <si>
+    <t>Spcl cond</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>NCHAR</t>
+  </si>
+  <si>
+    <t>SIGNED</t>
+  </si>
+  <si>
+    <t>UNSIGNED</t>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to DATE. Format: "YYYY-MM-DD"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to DATETIME. Format: "YYYY-MM-DD HH:MM:SS"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to DECIMAL. Use the optional M and D parameters to specify the maximum number of digits (M) and the number of digits following the decimal point (D).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to TIME. Format: "HH:MM:SS"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to CHAR (a fixed length string)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to NCHAR (like CHAR, but produces a string with the national character set)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to SIGNED (a signed 64-bit integer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to UNSIGNED (an unsigned 64-bit integer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Converts </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> to BINARY (a binary string)</t>
+    </r>
+  </si>
+  <si>
+    <t>FOR CAST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2926,19 +2955,6 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -3204,8 +3220,42 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3215,16 +3265,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E9EB"/>
       </patternFill>
     </fill>
     <fill>
@@ -3280,7 +3320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -3363,96 +3403,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3586,12 +3536,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3657,31 +3836,13 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3693,163 +3854,259 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="38" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="22" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4555,8 +4812,8 @@
   </sheetPr>
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4574,516 +4831,516 @@
   <sheetData>
     <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>253</v>
+      <c r="B2" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="36" t="s">
-        <v>254</v>
+      <c r="J3" s="28" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="J5" s="25" t="s">
-        <v>258</v>
+      <c r="B5" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="J5" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="J6" s="84" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
+      <c r="B6" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="J6" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="38"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
+      <c r="B8" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="J9" s="25" t="s">
-        <v>263</v>
+      <c r="B9" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="J9" s="23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="J10" s="84" t="s">
-        <v>264</v>
-      </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="J10" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
+      <c r="B11" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="J13" s="25" t="s">
-        <v>267</v>
+      <c r="A13" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="J13" s="23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="J14" s="84" t="s">
-        <v>268</v>
-      </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="J14" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
     </row>
     <row r="15" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
     </row>
     <row r="16" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
     </row>
     <row r="17" spans="2:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
     </row>
     <row r="18" spans="2:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
     </row>
     <row r="19" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="25" t="s">
-        <v>269</v>
+      <c r="B19" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>271</v>
+      <c r="B20" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
       <c r="N21" s="16" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="88" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90"/>
+      <c r="C22" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
       <c r="N22" s="16" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
+      <c r="C23" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
       <c r="N23" s="16" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
       <c r="N24" s="16" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="90"/>
+      <c r="C26" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
     </row>
     <row r="27" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="N27" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="T27" s="40" t="s">
-        <v>281</v>
+      <c r="C27" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="N27" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="T27" s="32" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="N28" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="T28" s="41" t="s">
-        <v>283</v>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="N28" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="T28" s="33" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N29" s="16" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="90"/>
+      <c r="C30" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
       <c r="N30" s="16" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
+      <c r="C31" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
       <c r="N31" s="16" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="T31" s="16" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
       <c r="T32" s="16" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N33" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="R33" s="40" t="s">
-        <v>293</v>
+      <c r="N33" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="R33" s="32" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N34" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="R34" s="41" t="s">
-        <v>294</v>
+      <c r="N34" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N35" s="16" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N36" s="16" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R37" s="16" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R38" s="16" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N40" s="40" t="s">
-        <v>301</v>
+      <c r="N40" s="32" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N41" s="16" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N42" s="16" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N43" s="16" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N44" s="16" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N45" s="16" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N46" s="16" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="14:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N47" s="16" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:Q7"/>
+    <mergeCell ref="J10:Q11"/>
+    <mergeCell ref="A13:H16"/>
+    <mergeCell ref="J14:P16"/>
+    <mergeCell ref="C22:J22"/>
     <mergeCell ref="C23:J24"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C27:J28"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="C31:J32"/>
-    <mergeCell ref="J6:Q7"/>
-    <mergeCell ref="J10:Q11"/>
-    <mergeCell ref="A13:H16"/>
-    <mergeCell ref="J14:P16"/>
-    <mergeCell ref="C22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5091,180 +5348,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:N21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="17"/>
-      <c r="D16" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="19"/>
-      <c r="N19" s="22">
-        <f>4623-42</f>
-        <v>4581</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="19"/>
-      <c r="E20" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E20:H20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5414,7 +5497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5549,8 +5632,8 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5572,142 +5655,142 @@
     <row r="7" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
-        <v>89</v>
+      <c r="A9" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>227</v>
+        <v>140</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
-        <v>229</v>
+      <c r="B10" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K11" s="16" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
-        <v>63</v>
+      <c r="A12" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>202</v>
+        <v>147</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="35"/>
+      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>109</v>
+        <v>154</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
-        <v>115</v>
+      <c r="A18" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
-        <v>244</v>
+      <c r="A20" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>246</v>
+        <v>159</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>248</v>
+        <v>161</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
-        <v>249</v>
+      <c r="A23" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5733,58 +5816,58 @@
   <sheetData>
     <row r="3" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
     </row>
     <row r="6" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="44"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5811,72 +5894,72 @@
     <row r="2" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S3" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="S4" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="S5" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="S6" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K7" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="S7" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="S8" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S9" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="11:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5889,665 +5972,468 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="C1:H82"/>
+  <dimension ref="B1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="164.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="3:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="23" t="s">
+    <row r="1" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="26" t="s">
+    </row>
+    <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="102" t="s">
+        <v>544</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>541</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="K5" s="99" t="s">
+        <v>546</v>
+      </c>
+      <c r="L5" s="100"/>
+      <c r="M5" s="101"/>
+    </row>
+    <row r="6" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>543</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>542</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>547</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="111"/>
+      <c r="D12" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>548</v>
+      </c>
+      <c r="H12" s="111"/>
+    </row>
+    <row r="13" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="118"/>
+      <c r="F13" s="98" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="98" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="119" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="119" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C20" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="109" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="27" t="s">
+    <row r="23" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C34" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C39" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C41" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C42" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C45" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C46" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C47" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C48" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C49" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C51" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C58" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C60" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C62" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C64" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C70" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C71" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C72" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C73" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C74" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C75" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C76" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C77" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C78" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C79" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C80" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C81" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C82" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>209</v>
-      </c>
+    <row r="24" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="2:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="90"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="K5:M5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" display="https://www.w3schools.com/sql/sql_ref_add.asp" xr:uid="{F7FDA2AA-AA11-4197-86BA-B69A4A7CD1D1}"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://www.w3schools.com/sql/sql_ref_add_constraint.asp" xr:uid="{07FFF94F-8652-4CD2-927C-D5FE11069646}"/>
+    <hyperlink ref="B20" r:id="rId3" display="https://www.w3schools.com/sql/sql_ref_all.asp" xr:uid="{80F029B4-D542-4D36-A5A7-F321A312EDDE}"/>
+    <hyperlink ref="G6" r:id="rId4" display="https://www.w3schools.com/sql/sql_ref_alter.asp" xr:uid="{689BC1FC-0A24-4C6B-9EA3-9C4F024A8D18}"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://www.w3schools.com/sql/sql_ref_alter_column.asp" xr:uid="{F5DD17CB-0E4E-42C4-84DD-EF19F353FBB4}"/>
+    <hyperlink ref="G8" r:id="rId6" display="https://www.w3schools.com/sql/sql_ref_alter_table.asp" xr:uid="{D3F75F52-C7A4-4974-8A3C-A0B517BDAD38}"/>
+    <hyperlink ref="B18" r:id="rId7" display="https://www.w3schools.com/sql/sql_ref_and.asp" xr:uid="{CC895038-0822-42FC-B58E-61D1398DDD02}"/>
+    <hyperlink ref="B19" r:id="rId8" display="https://www.w3schools.com/sql/sql_ref_any.asp" xr:uid="{268CD9F4-C998-4B75-94C9-20486AC416E7}"/>
+    <hyperlink ref="D6" r:id="rId9" display="https://www.w3schools.com/sql/sql_ref_as.asp" xr:uid="{22098C80-FC63-4868-A924-C5D23C9E3094}"/>
+    <hyperlink ref="D22" r:id="rId10" display="https://www.w3schools.com/sql/sql_ref_asc.asp" xr:uid="{01D85FBB-B21C-4632-B2AD-E23159DBB41D}"/>
+    <hyperlink ref="C6" r:id="rId11" display="https://www.w3schools.com/sql/sql_ref_backup_database.asp" xr:uid="{C3A1F20F-0299-4E41-B7FF-940B5DBD06D9}"/>
+    <hyperlink ref="D21" r:id="rId12" display="https://www.w3schools.com/sql/sql_ref_between.asp" xr:uid="{2DF2EAC6-D306-40D5-AFF8-916DC853DF87}"/>
+    <hyperlink ref="D15" r:id="rId13" display="https://www.w3schools.com/sql/sql_ref_case.asp" xr:uid="{9428C389-9B3E-415C-81AB-E347E4CE9A24}"/>
+    <hyperlink ref="F13" r:id="rId14" display="https://www.w3schools.com/sql/sql_ref_check.asp" xr:uid="{7FA293B0-0FAA-4BEB-AFB2-D3D23B7791EE}"/>
+    <hyperlink ref="F6" r:id="rId15" display="https://www.w3schools.com/sql/sql_ref_create_database.asp" xr:uid="{81F1A778-E10E-40A2-83E1-634DF2F48093}"/>
+    <hyperlink ref="F7" r:id="rId16" display="https://www.w3schools.com/sql/sql_ref_create_index.asp" xr:uid="{97277203-71E9-4C68-BE95-BE85B7D23687}"/>
+    <hyperlink ref="F8" r:id="rId17" display="https://www.w3schools.com/sql/sql_ref_create_or_replace_view.asp" xr:uid="{568C410A-AC6D-4DFA-8F3D-A9062DEA3CA2}"/>
+    <hyperlink ref="F12" r:id="rId18" display="https://www.w3schools.com/sql/sql_ref_create_table.asp" xr:uid="{816DF8D8-F9D8-4015-A634-5606ED385233}"/>
+    <hyperlink ref="F9" r:id="rId19" display="https://www.w3schools.com/sql/sql_ref_create_procedure.asp" xr:uid="{81F693FA-7951-421F-8063-33C7FCCACA3A}"/>
+    <hyperlink ref="F10" r:id="rId20" display="https://www.w3schools.com/sql/sql_ref_create_unique_index.asp" xr:uid="{4E6C7FB4-D776-43BB-A2D0-EEE6E55CA853}"/>
+    <hyperlink ref="F11" r:id="rId21" display="https://www.w3schools.com/sql/sql_ref_create_view.asp" xr:uid="{0B3271AD-BDA9-4043-8632-F8B06AC756A5}"/>
+    <hyperlink ref="F14" r:id="rId22" display="https://www.w3schools.com/sql/sql_ref_default.asp" xr:uid="{A83F65E4-4DDD-4984-867C-3BEFAAA905D5}"/>
+    <hyperlink ref="K6" r:id="rId23" display="https://www.w3schools.com/sql/sql_ref_delete.asp" xr:uid="{DF7BDB63-4D14-4CCB-A389-86A8C0267B04}"/>
+    <hyperlink ref="D23" r:id="rId24" display="https://www.w3schools.com/sql/sql_ref_desc.asp" xr:uid="{A79A699F-662C-45BC-BF8C-9882FA34CF21}"/>
+    <hyperlink ref="B15" r:id="rId25" display="https://www.w3schools.com/sql/sql_ref_distinct.asp" xr:uid="{7B02EC52-90BE-40AF-BF7E-4E4C3740E3C8}"/>
+    <hyperlink ref="H6" r:id="rId26" display="https://www.w3schools.com/sql/sql_ref_drop.asp" xr:uid="{2B906549-5BE4-468C-85C6-E173678CE8C3}"/>
+    <hyperlink ref="G11" r:id="rId27" display="https://www.w3schools.com/sql/sql_ref_drop_column.asp" xr:uid="{1CFFB9AB-5F8E-4DC3-A4A4-121ACF1A48D7}"/>
+    <hyperlink ref="G12" r:id="rId28" display="https://www.w3schools.com/sql/sql_ref_drop_constraint.asp" xr:uid="{B06D350A-58E1-4023-AEF5-2A853EEEDB83}"/>
+    <hyperlink ref="H7" r:id="rId29" display="https://www.w3schools.com/sql/sql_ref_drop_database.asp" xr:uid="{99E04E59-09D0-40A7-B3AD-FDA1A59F8B45}"/>
+    <hyperlink ref="H8" r:id="rId30" display="https://www.w3schools.com/sql/sql_ref_drop_default.asp" xr:uid="{1E1AE1CB-D568-48B3-A57F-ABF6AFBBBC03}"/>
+    <hyperlink ref="H9" r:id="rId31" display="https://www.w3schools.com/sql/sql_ref_drop_index.asp" xr:uid="{0273F2E2-21E0-4EAC-BDF1-D57333FC61C4}"/>
+    <hyperlink ref="H10" r:id="rId32" display="https://www.w3schools.com/sql/sql_ref_drop_table.asp" xr:uid="{6EF7C44B-92E4-49F0-97AE-C91AAB24A7B1}"/>
+    <hyperlink ref="H11" r:id="rId33" display="https://www.w3schools.com/sql/sql_ref_drop_view.asp" xr:uid="{EA3E9E8B-36DB-42B8-A55E-9DA5C164D390}"/>
+    <hyperlink ref="C7" r:id="rId34" display="https://www.w3schools.com/sql/sql_ref_exec.asp" xr:uid="{CC2DCE29-E024-4B6D-807C-18D176A57204}"/>
+    <hyperlink ref="B16" r:id="rId35" display="https://www.w3schools.com/sql/sql_ref_exists.asp" xr:uid="{AD80FA70-A609-4688-B563-82E6C871278F}"/>
+    <hyperlink ref="F15" r:id="rId36" display="https://www.w3schools.com/sql/sql_ref_foreign_key.asp" xr:uid="{D390FB6D-B9BC-4CB3-B179-28BC5299B5F7}"/>
+    <hyperlink ref="D7" r:id="rId37" display="https://www.w3schools.com/sql/sql_ref_from.asp" xr:uid="{3763FD29-E1ED-49F8-8918-4441EAB24328}"/>
+    <hyperlink ref="B9" r:id="rId38" display="https://www.w3schools.com/sql/sql_ref_full_outer_join.asp" xr:uid="{BEB1D7F6-EEFA-43C5-A1EA-3D872290801E}"/>
+    <hyperlink ref="D16" r:id="rId39" display="https://www.w3schools.com/sql/sql_ref_group_by.asp" xr:uid="{BC84A4A4-BEBB-44A5-9738-46E86373EF82}"/>
+    <hyperlink ref="D18" r:id="rId40" display="https://www.w3schools.com/sql/sql_ref_having.asp" xr:uid="{197833A5-F87D-4D48-8BC4-33BA36B017FF}"/>
+    <hyperlink ref="C18" r:id="rId41" display="https://www.w3schools.com/sql/sql_ref_in.asp" xr:uid="{0FC3B69B-D566-4DDA-BD2F-C2E5D5D6EB6F}"/>
+    <hyperlink ref="C8" r:id="rId42" display="https://www.w3schools.com/sql/sql_ref_index.asp" xr:uid="{88B1601C-9CC4-40E2-B65C-3CDAB2E14AF5}"/>
+    <hyperlink ref="B10" r:id="rId43" display="https://www.w3schools.com/sql/sql_ref_inner_join.asp" xr:uid="{FE00E75F-0DA2-4940-8842-2A917B4F7D9B}"/>
+    <hyperlink ref="L6" r:id="rId44" display="https://www.w3schools.com/sql/sql_ref_insert_into.asp" xr:uid="{FB817B64-E12A-4FC8-91DE-9E0AF6AED96C}"/>
+    <hyperlink ref="L7" r:id="rId45" display="https://www.w3schools.com/sql/sql_ref_insert_into_select.asp" xr:uid="{BA5AC93A-1553-4BCF-9873-151DDEB8CC39}"/>
+    <hyperlink ref="C15" r:id="rId46" display="https://www.w3schools.com/sql/sql_ref_is_null.asp" xr:uid="{3D9E0F19-C345-4FCF-AEF1-A18D299B3F33}"/>
+    <hyperlink ref="C16" r:id="rId47" display="https://www.w3schools.com/sql/sql_ref_is_not_null.asp" xr:uid="{84652D18-804B-4233-B9FD-9F5ECA86079E}"/>
+    <hyperlink ref="B6" r:id="rId48" display="https://www.w3schools.com/sql/sql_ref_join.asp" xr:uid="{36B5F4D5-9D84-4A1D-9FC8-F87FE90A2988}"/>
+    <hyperlink ref="B7" r:id="rId49" display="https://www.w3schools.com/sql/sql_ref_left_join.asp" xr:uid="{00CF82AF-B697-4C5C-8E97-CEE292C1E06D}"/>
+    <hyperlink ref="C19" r:id="rId50" display="https://www.w3schools.com/sql/sql_ref_like.asp" xr:uid="{212AB422-B9B5-4BA4-B1F4-8FD9CCF97333}"/>
+    <hyperlink ref="D20" r:id="rId51" display="https://www.w3schools.com/sql/sql_ref_limit.asp" xr:uid="{15B00065-CFC4-465B-89BE-DC6EE27F5242}"/>
+    <hyperlink ref="C20" r:id="rId52" display="https://www.w3schools.com/sql/sql_ref_not.asp" xr:uid="{09EA6313-568E-4FE5-905A-64DE34BF2CE2}"/>
+    <hyperlink ref="C17" r:id="rId53" display="https://www.w3schools.com/sql/sql_ref_not_null.asp" xr:uid="{03DA1FD6-5846-4277-854D-1E3D120F7AE4}"/>
+    <hyperlink ref="B17" r:id="rId54" display="https://www.w3schools.com/sql/sql_ref_or.asp" xr:uid="{73E94B3F-C0D9-4499-8E8D-4E5B02D38CD3}"/>
+    <hyperlink ref="D19" r:id="rId55" display="https://www.w3schools.com/sql/sql_ref_order_by.asp" xr:uid="{9BD69679-85BF-401A-9959-2AE59E33124B}"/>
+    <hyperlink ref="B8" r:id="rId56" display="https://www.w3schools.com/sql/sql_ref_outer_join.asp" xr:uid="{BCD7F472-93A2-4DFB-8199-9AAB85C661B2}"/>
+    <hyperlink ref="F16" r:id="rId57" display="https://www.w3schools.com/sql/sql_ref_primary_key.asp" xr:uid="{E7A0682A-B093-4699-A7C6-870827023CAE}"/>
+    <hyperlink ref="C9" r:id="rId58" display="https://www.w3schools.com/sql/sql_ref_procedure.asp" xr:uid="{8F6DC223-1E0E-406F-9D1A-768589E24F16}"/>
+    <hyperlink ref="B11" r:id="rId59" display="https://www.w3schools.com/sql/sql_ref_right_join.asp" xr:uid="{F0EEFE3C-BEC3-41D7-914D-A61F78DEC2ED}"/>
+    <hyperlink ref="C11" r:id="rId60" display="https://www.w3schools.com/sql/sql_ref_rownum.asp" xr:uid="{8A3E1F50-7E3C-4B7F-990D-9C0CFF73774F}"/>
+    <hyperlink ref="D8" r:id="rId61" display="https://www.w3schools.com/sql/sql_ref_select.asp" xr:uid="{33469B71-5549-48B2-8BBE-EC817D9671C5}"/>
+    <hyperlink ref="D9" r:id="rId62" display="https://www.w3schools.com/sql/sql_ref_select_distinct.asp" xr:uid="{6CC25EF7-406A-47DD-AEF6-B808621C6658}"/>
+    <hyperlink ref="D10" r:id="rId63" display="https://www.w3schools.com/sql/sql_ref_select_into.asp" xr:uid="{A4F14621-9B1D-42B2-A7DF-FFE0CDA2461A}"/>
+    <hyperlink ref="D11" r:id="rId64" display="https://www.w3schools.com/sql/sql_ref_select_top.asp" xr:uid="{45E501EF-47EF-4265-91D7-8727EBDD08AC}"/>
+    <hyperlink ref="M7" r:id="rId65" display="https://www.w3schools.com/sql/sql_ref_set.asp" xr:uid="{6EEE56AC-EEFD-43B1-8467-2721CED3EBD7}"/>
+    <hyperlink ref="D12" r:id="rId66" display="https://www.w3schools.com/sql/sql_ref_table.asp" xr:uid="{C6B8A613-2AA5-4071-80F0-A1D0832FF7A7}"/>
+    <hyperlink ref="I6" r:id="rId67" display="https://www.w3schools.com/sql/sql_ref_truncate_table.asp" xr:uid="{797A9CF1-EDF8-4A86-96A2-FE507554CB2B}"/>
+    <hyperlink ref="B12" r:id="rId68" display="https://www.w3schools.com/sql/sql_ref_union.asp" xr:uid="{0B20CC3F-EA33-4C79-9A46-19E9699CE0B8}"/>
+    <hyperlink ref="B13" r:id="rId69" display="https://www.w3schools.com/sql/sql_ref_union_all.asp" xr:uid="{71D5D5FA-727B-4F78-A9CC-DE00731DEDB4}"/>
+    <hyperlink ref="F17" r:id="rId70" display="https://www.w3schools.com/sql/sql_ref_unique.asp" xr:uid="{A7E12D84-0E0F-4289-89C9-D945B47CD63A}"/>
+    <hyperlink ref="M6" r:id="rId71" display="https://www.w3schools.com/sql/sql_ref_update.asp" xr:uid="{FD8AD5A8-FE49-4E59-A43A-08D086B53AB6}"/>
+    <hyperlink ref="L8" r:id="rId72" display="https://www.w3schools.com/sql/sql_ref_values.asp" xr:uid="{EC0B3701-676B-4F37-8CA0-8EF625D98459}"/>
+    <hyperlink ref="C10" r:id="rId73" display="https://www.w3schools.com/sql/sql_ref_view.asp" xr:uid="{A4D56730-63D7-410E-A37C-72D7349E2D86}"/>
+    <hyperlink ref="D17" r:id="rId74" display="https://www.w3schools.com/sql/sql_ref_where.asp" xr:uid="{E5C3F6FA-F749-4812-87BA-060392E69EFD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6573,37 +6459,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="I3" s="48"/>
+      <c r="B3" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="40"/>
       <c r="J3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="I4" s="50" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>56</v>
       </c>
       <c r="J4"/>
@@ -6611,594 +6497,594 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>372</v>
+      <c r="B5" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="J5"/>
       <c r="K5" s="1"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>373</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>374</v>
+      <c r="B6" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="J6"/>
       <c r="K6" s="1"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>376</v>
+      <c r="B7" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>290</v>
       </c>
       <c r="J7"/>
       <c r="K7" s="1"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>378</v>
+      <c r="B8" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>292</v>
       </c>
       <c r="J8"/>
       <c r="K8" s="1"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>380</v>
+      <c r="B9" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="J9"/>
       <c r="K9" s="1"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>382</v>
+      <c r="B10" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>296</v>
       </c>
       <c r="J10"/>
       <c r="K10" s="1"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>383</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>384</v>
+      <c r="B11" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>298</v>
       </c>
       <c r="J11"/>
       <c r="K11" s="1"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>384</v>
+      <c r="B12" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>298</v>
       </c>
       <c r="J12"/>
       <c r="K12" s="1"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>387</v>
+      <c r="B13" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>301</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="1"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>389</v>
+      <c r="B14" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>303</v>
       </c>
       <c r="J14"/>
       <c r="K14" s="1"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>391</v>
+      <c r="B15" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>305</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="1"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="64" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>393</v>
+      <c r="B16" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>307</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="1"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>394</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>395</v>
+      <c r="B17" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>309</v>
       </c>
       <c r="J17"/>
       <c r="K17" s="1"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="64" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>397</v>
+      <c r="B18" s="56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="J18"/>
       <c r="K18" s="1"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>399</v>
+      <c r="B19" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>313</v>
       </c>
       <c r="J19"/>
       <c r="K19" s="1"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>401</v>
+      <c r="B20" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>315</v>
       </c>
       <c r="J20"/>
       <c r="K20" s="1"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>402</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>403</v>
+      <c r="B21" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>317</v>
       </c>
       <c r="J21"/>
       <c r="K21" s="1"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="64" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="H22" s="64" t="s">
-        <v>404</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>405</v>
+      <c r="B22" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>319</v>
       </c>
       <c r="J22"/>
       <c r="K22" s="1"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" s="57" t="s">
-        <v>406</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>407</v>
+      <c r="B23" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>321</v>
       </c>
       <c r="J23"/>
       <c r="K23" s="1"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="64" t="s">
-        <v>345</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>408</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>409</v>
+      <c r="B24" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>323</v>
       </c>
       <c r="J24"/>
       <c r="K24" s="1"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="H25" s="57" t="s">
-        <v>410</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>411</v>
+      <c r="B25" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>325</v>
       </c>
       <c r="J25"/>
       <c r="K25" s="1"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="64" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>412</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>413</v>
+      <c r="B26" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>327</v>
       </c>
       <c r="J26"/>
       <c r="K26" s="1"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="H27" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>415</v>
+      <c r="B27" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>329</v>
       </c>
       <c r="J27"/>
       <c r="K27" s="1"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>416</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>417</v>
+      <c r="B28" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>331</v>
       </c>
       <c r="J28"/>
       <c r="K28" s="1"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>418</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>419</v>
+      <c r="B29" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>333</v>
       </c>
       <c r="J29"/>
       <c r="K29" s="1"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>420</v>
-      </c>
-      <c r="I30" s="52" t="s">
-        <v>421</v>
+      <c r="B30" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>335</v>
       </c>
       <c r="J30"/>
       <c r="K30" s="1"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>421</v>
+      <c r="B31" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>335</v>
       </c>
       <c r="J31"/>
       <c r="K31" s="1"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="64" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>424</v>
+      <c r="B32" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>338</v>
       </c>
       <c r="J32"/>
       <c r="K32" s="1"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>425</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>426</v>
+      <c r="B33" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>340</v>
       </c>
       <c r="J33"/>
       <c r="K33" s="1"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="H34" s="64" t="s">
-        <v>427</v>
-      </c>
-      <c r="I34" s="52" t="s">
-        <v>428</v>
+      <c r="B34" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="H34" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>342</v>
       </c>
       <c r="J34"/>
       <c r="K34" s="1"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="H35" s="57" t="s">
-        <v>429</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>430</v>
+      <c r="B35" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>344</v>
       </c>
       <c r="J35"/>
       <c r="K35" s="1"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="64" t="s">
-        <v>367</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="H36" s="64" t="s">
-        <v>431</v>
-      </c>
-      <c r="I36" s="52" t="s">
-        <v>432</v>
+      <c r="B36" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>346</v>
       </c>
       <c r="J36"/>
       <c r="K36" s="1"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>368</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>433</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>434</v>
+      <c r="B37" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>348</v>
       </c>
       <c r="J37"/>
       <c r="K37" s="1"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H38" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="I38" s="52" t="s">
-        <v>436</v>
+      <c r="H38" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>350</v>
       </c>
       <c r="J38"/>
       <c r="K38" s="1"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H39" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>438</v>
+      <c r="H39" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>352</v>
       </c>
       <c r="J39"/>
       <c r="K39" s="1"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H40" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="I40" s="52" t="s">
-        <v>439</v>
+      <c r="H40" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="44" t="s">
+        <v>353</v>
       </c>
       <c r="J40"/>
       <c r="K40" s="1"/>
@@ -7285,10 +7171,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:T53"/>
+  <dimension ref="B6:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7296,958 +7182,960 @@
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:20" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
+    <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:20" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="50"/>
+    </row>
+    <row r="9" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+    </row>
+    <row r="10" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>484</v>
+      </c>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+    </row>
+    <row r="11" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>486</v>
+      </c>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+    </row>
+    <row r="12" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="M12" s="73" t="s">
+        <v>488</v>
+      </c>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+    </row>
+    <row r="13" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="M13" s="73" t="s">
+        <v>490</v>
+      </c>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+    </row>
+    <row r="14" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>492</v>
+      </c>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+    </row>
+    <row r="15" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>493</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>495</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="47" t="s">
+        <v>372</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L19" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>502</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>506</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="L23" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="M23" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+    </row>
+    <row r="24" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="L24" s="65" t="s">
+        <v>510</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+    </row>
+    <row r="25" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="L25" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="L28" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>521</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L31" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L32" s="61" t="s">
+        <v>525</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="L33" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="47" t="s">
+        <v>403</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>533</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L38" s="65" t="s">
+        <v>537</v>
+      </c>
+      <c r="M38" s="69" t="s">
+        <v>538</v>
+      </c>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="71"/>
+    </row>
+    <row r="39" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="L39" s="68" t="s">
+        <v>539</v>
+      </c>
+      <c r="M39" s="72" t="s">
+        <v>540</v>
+      </c>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="71"/>
+    </row>
+    <row r="40" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="L2" s="67" t="s">
-        <v>566</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="58"/>
-    </row>
-    <row r="4" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="55" t="s">
+      <c r="C56" s="44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C57" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="L4" s="70" t="s">
-        <v>567</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>568</v>
-      </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-    </row>
-    <row r="5" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="55" t="s">
+    </row>
+    <row r="58" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C58" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="L5" s="73" t="s">
-        <v>569</v>
-      </c>
-      <c r="M5" s="74" t="s">
-        <v>570</v>
-      </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-    </row>
-    <row r="6" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="55" t="s">
-        <v>445</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>571</v>
-      </c>
-      <c r="M6" s="74" t="s">
-        <v>572</v>
-      </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="55" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="L7" s="72" t="s">
-        <v>573</v>
-      </c>
-      <c r="M7" s="81" t="s">
-        <v>574</v>
-      </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-    </row>
-    <row r="8" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="L8" s="73" t="s">
-        <v>575</v>
-      </c>
-      <c r="M8" s="81" t="s">
-        <v>576</v>
-      </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-    </row>
-    <row r="9" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="L9" s="72" t="s">
-        <v>577</v>
-      </c>
-      <c r="M9" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-    </row>
-    <row r="10" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="55" t="s">
-        <v>452</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="L10" s="68" t="s">
-        <v>579</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="55" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>454</v>
-      </c>
-      <c r="L11" s="69" t="s">
-        <v>581</v>
-      </c>
-      <c r="M11" s="47" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="55" t="s">
-        <v>455</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>456</v>
-      </c>
-      <c r="L12" s="68" t="s">
-        <v>583</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="55" t="s">
-        <v>457</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="L13" s="69" t="s">
-        <v>585</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="55" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>459</v>
-      </c>
-      <c r="L14" s="68" t="s">
-        <v>586</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="55" t="s">
-        <v>460</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>461</v>
-      </c>
-      <c r="L15" s="69" t="s">
-        <v>588</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="L16" s="68" t="s">
-        <v>590</v>
-      </c>
-      <c r="M16" s="46" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>465</v>
-      </c>
-      <c r="L17" s="69" t="s">
-        <v>592</v>
-      </c>
-      <c r="M17" s="47" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="55" t="s">
-        <v>466</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>463</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>594</v>
-      </c>
-      <c r="M18" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-    </row>
-    <row r="19" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="55" t="s">
-        <v>467</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>468</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>596</v>
-      </c>
-      <c r="M19" s="74" t="s">
-        <v>597</v>
-      </c>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-    </row>
-    <row r="20" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>470</v>
-      </c>
-      <c r="L20" s="68" t="s">
-        <v>598</v>
-      </c>
-      <c r="M20" s="46" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="55" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>472</v>
-      </c>
-      <c r="L21" s="69" t="s">
-        <v>600</v>
-      </c>
-      <c r="M21" s="47" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="55" t="s">
-        <v>473</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="L22" s="68" t="s">
-        <v>602</v>
-      </c>
-      <c r="M22" s="46" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="L23" s="69" t="s">
-        <v>604</v>
-      </c>
-      <c r="M23" s="47" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="L24" s="68" t="s">
-        <v>605</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="L25" s="69" t="s">
-        <v>607</v>
-      </c>
-      <c r="M25" s="47" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="L26" s="68" t="s">
-        <v>609</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="L27" s="69" t="s">
-        <v>611</v>
-      </c>
-      <c r="M27" s="47" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="55" t="s">
-        <v>483</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>484</v>
-      </c>
-      <c r="L28" s="68" t="s">
-        <v>613</v>
-      </c>
-      <c r="M28" s="46" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="55" t="s">
-        <v>485</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>486</v>
-      </c>
-      <c r="L29" s="69" t="s">
-        <v>615</v>
-      </c>
-      <c r="M29" s="47" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="55" t="s">
-        <v>487</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="L30" s="68" t="s">
-        <v>617</v>
-      </c>
-      <c r="M30" s="46" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="55" t="s">
-        <v>489</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="L31" s="69" t="s">
-        <v>619</v>
-      </c>
-      <c r="M31" s="47" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>492</v>
-      </c>
-      <c r="L32" s="68" t="s">
-        <v>621</v>
-      </c>
-      <c r="M32" s="46" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="L33" s="73" t="s">
-        <v>623</v>
-      </c>
-      <c r="M33" s="77" t="s">
-        <v>624</v>
-      </c>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="79"/>
-    </row>
-    <row r="34" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="55" t="s">
-        <v>494</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>495</v>
-      </c>
-      <c r="L34" s="76" t="s">
-        <v>625</v>
-      </c>
-      <c r="M34" s="80" t="s">
-        <v>626</v>
-      </c>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
-    </row>
-    <row r="35" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="55" t="s">
-        <v>496</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="55" t="s">
-        <v>498</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="55" t="s">
-        <v>500</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="55" t="s">
-        <v>502</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="55" t="s">
-        <v>506</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="55" t="s">
-        <v>507</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="55" t="s">
-        <v>509</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="55" t="s">
-        <v>510</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="55" t="s">
-        <v>512</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="55" t="s">
-        <v>514</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="55" t="s">
-        <v>516</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="55" t="s">
-        <v>518</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="55" t="s">
-        <v>520</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="55" t="s">
-        <v>522</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="55" t="s">
-        <v>524</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="55" t="s">
-        <v>526</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="55" t="s">
-        <v>527</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="55" t="s">
-        <v>529</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>530</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L4:M34">
-    <sortCondition ref="L4:L34"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.w3schools.com/sql/func_mysql_adddate.asp" xr:uid="{6672439F-8C90-4C8D-8888-2F829E723556}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://www.w3schools.com/sql/func_mysql_addtime.asp" xr:uid="{B04DF4C9-0477-4EF8-8118-0368F8469BB8}"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.w3schools.com/sql/func_mysql_curdate.asp" xr:uid="{C4BBAECF-46E2-435F-93E3-54969DFF032C}"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://www.w3schools.com/sql/func_mysql_current_date.asp" xr:uid="{642F9401-FD4C-4D90-8181-83A6F842BC69}"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://www.w3schools.com/sql/func_mysql_current_time.asp" xr:uid="{2085194D-A826-4289-9AD0-855592C70947}"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://www.w3schools.com/sql/func_mysql_current_timestamp.asp" xr:uid="{25EB9DED-FEB1-4814-81F4-8A31E9AB6AB9}"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.w3schools.com/sql/func_mysql_curtime.asp" xr:uid="{5962A5F8-A97E-4B0D-A69A-AC9323B2B472}"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://www.w3schools.com/sql/func_mysql_date.asp" xr:uid="{E5B3E089-CF42-4E17-9411-BD966EB71A3E}"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://www.w3schools.com/sql/func_mysql_datediff.asp" xr:uid="{A05163B3-4A90-4764-A2E9-3A27FCECEE4F}"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://www.w3schools.com/sql/func_mysql_date_add.asp" xr:uid="{AF2AAFC6-9A18-45AF-AD66-F8DF834708E4}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://www.w3schools.com/sql/func_mysql_date_format.asp" xr:uid="{C3B2B33D-2F52-4837-82F7-5B1C7938F896}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://www.w3schools.com/sql/func_mysql_date_sub.asp" xr:uid="{59674473-2239-4672-9E1D-87693F27E19E}"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://www.w3schools.com/sql/func_mysql_day.asp" xr:uid="{90FE4155-190D-4C5E-912A-F47848DBE7C0}"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://www.w3schools.com/sql/func_mysql_dayname.asp" xr:uid="{9C84EB26-4D00-42FC-9425-9BBDF52A6069}"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://www.w3schools.com/sql/func_mysql_dayofmonth.asp" xr:uid="{AB64B381-4B83-4916-A8DE-98C9236FFDAE}"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://www.w3schools.com/sql/func_mysql_dayofweek.asp" xr:uid="{6A12E4DB-F279-47E7-B755-87BA1BC33202}"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://www.w3schools.com/sql/func_mysql_dayofyear.asp" xr:uid="{33F3F417-E761-4591-AC7A-710010894E37}"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://www.w3schools.com/sql/func_mysql_extract.asp" xr:uid="{3729B953-4893-48C1-A744-8C9A8E254545}"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://www.w3schools.com/sql/func_mysql_from_days.asp" xr:uid="{41CC437B-BEAA-4EF0-8F1A-99B609149F69}"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://www.w3schools.com/sql/func_mysql_hour.asp" xr:uid="{363C0619-BD9C-4B55-B92E-E40D68597A7C}"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://www.w3schools.com/sql/func_mysql_last_day.asp" xr:uid="{BFC648E2-9606-4C7D-93CE-7B78C95C493E}"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://www.w3schools.com/sql/func_mysql_localtime.asp" xr:uid="{A53CC046-0CF7-4180-AEC7-C024FA02A995}"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://www.w3schools.com/sql/func_mysql_localtimestamp.asp" xr:uid="{BB908496-A21C-4A97-A83D-8B03DE011632}"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://www.w3schools.com/sql/func_mysql_makedate.asp" xr:uid="{EC25C8BD-C3F7-4763-8763-141BCD8E601B}"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://www.w3schools.com/sql/func_mysql_maketime.asp" xr:uid="{72678C9A-7CCD-4D4D-9902-45B3275AA796}"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://www.w3schools.com/sql/func_mysql_microsecond.asp" xr:uid="{E0298183-B837-4584-9B1E-B0589EFB53BB}"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://www.w3schools.com/sql/func_mysql_minute.asp" xr:uid="{90F106F5-64B4-4C02-878D-00FE963E0E6A}"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://www.w3schools.com/sql/func_mysql_month.asp" xr:uid="{A6C34EDB-BA4E-491F-85F7-7D625E4F1617}"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://www.w3schools.com/sql/func_mysql_monthname.asp" xr:uid="{ECC5AC15-B099-408C-8BAC-9B0FE8BF0EA9}"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://www.w3schools.com/sql/func_mysql_now.asp" xr:uid="{050F81FB-0C33-42CC-AC1E-4D052360303A}"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://www.w3schools.com/sql/func_mysql_period_add.asp" xr:uid="{F2B4DAFE-D1C3-4226-BD4B-963EE5023728}"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://www.w3schools.com/sql/func_mysql_period_diff.asp" xr:uid="{8BC84875-F9B7-449C-9BAD-2818D86AC782}"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://www.w3schools.com/sql/func_mysql_quarter.asp" xr:uid="{F0074187-5C4F-41D8-B3BE-A0971213B2FA}"/>
-    <hyperlink ref="B37" r:id="rId34" display="https://www.w3schools.com/sql/func_mysql_second.asp" xr:uid="{8E8DFCF0-2707-45C0-91D0-34E58B95D1EC}"/>
-    <hyperlink ref="B38" r:id="rId35" display="https://www.w3schools.com/sql/func_mysql_sec_to_time.asp" xr:uid="{A6820765-3F1C-4AB0-8671-F6088E8A5F53}"/>
-    <hyperlink ref="B39" r:id="rId36" display="https://www.w3schools.com/sql/func_mysql_str_to_date.asp" xr:uid="{9BB8D98F-38F7-4450-9B91-01389A727EE0}"/>
-    <hyperlink ref="B40" r:id="rId37" display="https://www.w3schools.com/sql/func_mysql_subdate.asp" xr:uid="{2E69AE72-0AB9-4F72-A0E4-336029F58784}"/>
-    <hyperlink ref="B41" r:id="rId38" display="https://www.w3schools.com/sql/func_mysql_subtime.asp" xr:uid="{BA565EDA-4D4C-4905-B60C-DDECA39E96F8}"/>
-    <hyperlink ref="B42" r:id="rId39" display="https://www.w3schools.com/sql/func_mysql_sysdate.asp" xr:uid="{10F65A53-B9C1-4150-AD51-F015454345FF}"/>
-    <hyperlink ref="B43" r:id="rId40" display="https://www.w3schools.com/sql/func_mysql_time.asp" xr:uid="{EDB11893-67D1-4B68-A0BF-04EFDC2C2762}"/>
-    <hyperlink ref="B44" r:id="rId41" display="https://www.w3schools.com/sql/func_mysql_time_format.asp" xr:uid="{956BCC2C-F6C8-4986-A8A6-0F88D2657E26}"/>
-    <hyperlink ref="B45" r:id="rId42" display="https://www.w3schools.com/sql/func_mysql_time_to_sec.asp" xr:uid="{2B678C58-5EBF-42CC-BA25-079DF28CA58C}"/>
-    <hyperlink ref="B46" r:id="rId43" display="https://www.w3schools.com/sql/func_mysql_timediff.asp" xr:uid="{81617665-3ADA-463C-8E12-E348B72ECD00}"/>
-    <hyperlink ref="B47" r:id="rId44" display="https://www.w3schools.com/sql/func_mysql_timestamp.asp" xr:uid="{1F154406-BF0D-48E8-B848-57439EEA086F}"/>
-    <hyperlink ref="B48" r:id="rId45" display="https://www.w3schools.com/sql/func_mysql_to_days.asp" xr:uid="{12CC2718-BD13-4EFE-8423-E0BB3866151C}"/>
-    <hyperlink ref="B49" r:id="rId46" display="https://www.w3schools.com/sql/func_mysql_week.asp" xr:uid="{F36A0F3F-CF17-4CEF-8B54-CB041787B838}"/>
-    <hyperlink ref="B50" r:id="rId47" display="https://www.w3schools.com/sql/func_mysql_weekday.asp" xr:uid="{BF762861-489C-42D3-AFA0-AD91B2CC82DF}"/>
-    <hyperlink ref="B51" r:id="rId48" display="https://www.w3schools.com/sql/func_mysql_weekofyear.asp" xr:uid="{69DF8DB6-82D8-4E77-B398-A442F67982DF}"/>
-    <hyperlink ref="B52" r:id="rId49" display="https://www.w3schools.com/sql/func_mysql_year.asp" xr:uid="{6CE97D96-387D-471C-A0F2-0D51314220DA}"/>
-    <hyperlink ref="B53" r:id="rId50" display="https://www.w3schools.com/sql/func_mysql_yearweek.asp" xr:uid="{FEDB6AF2-95A4-4377-9AEF-C93F59F868B7}"/>
+    <hyperlink ref="B9" r:id="rId1" display="https://www.w3schools.com/sql/func_mysql_adddate.asp" xr:uid="{6672439F-8C90-4C8D-8888-2F829E723556}"/>
+    <hyperlink ref="B10" r:id="rId2" display="https://www.w3schools.com/sql/func_mysql_addtime.asp" xr:uid="{B04DF4C9-0477-4EF8-8118-0368F8469BB8}"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.w3schools.com/sql/func_mysql_curdate.asp" xr:uid="{C4BBAECF-46E2-435F-93E3-54969DFF032C}"/>
+    <hyperlink ref="B12" r:id="rId4" display="https://www.w3schools.com/sql/func_mysql_current_date.asp" xr:uid="{642F9401-FD4C-4D90-8181-83A6F842BC69}"/>
+    <hyperlink ref="B13" r:id="rId5" display="https://www.w3schools.com/sql/func_mysql_current_time.asp" xr:uid="{2085194D-A826-4289-9AD0-855592C70947}"/>
+    <hyperlink ref="B14" r:id="rId6" display="https://www.w3schools.com/sql/func_mysql_current_timestamp.asp" xr:uid="{25EB9DED-FEB1-4814-81F4-8A31E9AB6AB9}"/>
+    <hyperlink ref="B15" r:id="rId7" display="https://www.w3schools.com/sql/func_mysql_curtime.asp" xr:uid="{5962A5F8-A97E-4B0D-A69A-AC9323B2B472}"/>
+    <hyperlink ref="B16" r:id="rId8" display="https://www.w3schools.com/sql/func_mysql_date.asp" xr:uid="{E5B3E089-CF42-4E17-9411-BD966EB71A3E}"/>
+    <hyperlink ref="B17" r:id="rId9" display="https://www.w3schools.com/sql/func_mysql_datediff.asp" xr:uid="{A05163B3-4A90-4764-A2E9-3A27FCECEE4F}"/>
+    <hyperlink ref="B18" r:id="rId10" display="https://www.w3schools.com/sql/func_mysql_date_add.asp" xr:uid="{AF2AAFC6-9A18-45AF-AD66-F8DF834708E4}"/>
+    <hyperlink ref="B19" r:id="rId11" display="https://www.w3schools.com/sql/func_mysql_date_format.asp" xr:uid="{C3B2B33D-2F52-4837-82F7-5B1C7938F896}"/>
+    <hyperlink ref="B20" r:id="rId12" display="https://www.w3schools.com/sql/func_mysql_date_sub.asp" xr:uid="{59674473-2239-4672-9E1D-87693F27E19E}"/>
+    <hyperlink ref="B21" r:id="rId13" display="https://www.w3schools.com/sql/func_mysql_day.asp" xr:uid="{90FE4155-190D-4C5E-912A-F47848DBE7C0}"/>
+    <hyperlink ref="B22" r:id="rId14" display="https://www.w3schools.com/sql/func_mysql_dayname.asp" xr:uid="{9C84EB26-4D00-42FC-9425-9BBDF52A6069}"/>
+    <hyperlink ref="B23" r:id="rId15" display="https://www.w3schools.com/sql/func_mysql_dayofmonth.asp" xr:uid="{AB64B381-4B83-4916-A8DE-98C9236FFDAE}"/>
+    <hyperlink ref="B24" r:id="rId16" display="https://www.w3schools.com/sql/func_mysql_dayofweek.asp" xr:uid="{6A12E4DB-F279-47E7-B755-87BA1BC33202}"/>
+    <hyperlink ref="B25" r:id="rId17" display="https://www.w3schools.com/sql/func_mysql_dayofyear.asp" xr:uid="{33F3F417-E761-4591-AC7A-710010894E37}"/>
+    <hyperlink ref="B26" r:id="rId18" display="https://www.w3schools.com/sql/func_mysql_extract.asp" xr:uid="{3729B953-4893-48C1-A744-8C9A8E254545}"/>
+    <hyperlink ref="B27" r:id="rId19" display="https://www.w3schools.com/sql/func_mysql_from_days.asp" xr:uid="{41CC437B-BEAA-4EF0-8F1A-99B609149F69}"/>
+    <hyperlink ref="B28" r:id="rId20" display="https://www.w3schools.com/sql/func_mysql_hour.asp" xr:uid="{363C0619-BD9C-4B55-B92E-E40D68597A7C}"/>
+    <hyperlink ref="B29" r:id="rId21" display="https://www.w3schools.com/sql/func_mysql_last_day.asp" xr:uid="{BFC648E2-9606-4C7D-93CE-7B78C95C493E}"/>
+    <hyperlink ref="B30" r:id="rId22" display="https://www.w3schools.com/sql/func_mysql_localtime.asp" xr:uid="{A53CC046-0CF7-4180-AEC7-C024FA02A995}"/>
+    <hyperlink ref="B31" r:id="rId23" display="https://www.w3schools.com/sql/func_mysql_localtimestamp.asp" xr:uid="{BB908496-A21C-4A97-A83D-8B03DE011632}"/>
+    <hyperlink ref="B32" r:id="rId24" display="https://www.w3schools.com/sql/func_mysql_makedate.asp" xr:uid="{EC25C8BD-C3F7-4763-8763-141BCD8E601B}"/>
+    <hyperlink ref="B33" r:id="rId25" display="https://www.w3schools.com/sql/func_mysql_maketime.asp" xr:uid="{72678C9A-7CCD-4D4D-9902-45B3275AA796}"/>
+    <hyperlink ref="B34" r:id="rId26" display="https://www.w3schools.com/sql/func_mysql_microsecond.asp" xr:uid="{E0298183-B837-4584-9B1E-B0589EFB53BB}"/>
+    <hyperlink ref="B35" r:id="rId27" display="https://www.w3schools.com/sql/func_mysql_minute.asp" xr:uid="{90F106F5-64B4-4C02-878D-00FE963E0E6A}"/>
+    <hyperlink ref="B36" r:id="rId28" display="https://www.w3schools.com/sql/func_mysql_month.asp" xr:uid="{A6C34EDB-BA4E-491F-85F7-7D625E4F1617}"/>
+    <hyperlink ref="B37" r:id="rId29" display="https://www.w3schools.com/sql/func_mysql_monthname.asp" xr:uid="{ECC5AC15-B099-408C-8BAC-9B0FE8BF0EA9}"/>
+    <hyperlink ref="B38" r:id="rId30" display="https://www.w3schools.com/sql/func_mysql_now.asp" xr:uid="{050F81FB-0C33-42CC-AC1E-4D052360303A}"/>
+    <hyperlink ref="B39" r:id="rId31" display="https://www.w3schools.com/sql/func_mysql_period_add.asp" xr:uid="{F2B4DAFE-D1C3-4226-BD4B-963EE5023728}"/>
+    <hyperlink ref="B40" r:id="rId32" display="https://www.w3schools.com/sql/func_mysql_period_diff.asp" xr:uid="{8BC84875-F9B7-449C-9BAD-2818D86AC782}"/>
+    <hyperlink ref="B41" r:id="rId33" display="https://www.w3schools.com/sql/func_mysql_quarter.asp" xr:uid="{F0074187-5C4F-41D8-B3BE-A0971213B2FA}"/>
+    <hyperlink ref="B42" r:id="rId34" display="https://www.w3schools.com/sql/func_mysql_second.asp" xr:uid="{8E8DFCF0-2707-45C0-91D0-34E58B95D1EC}"/>
+    <hyperlink ref="B43" r:id="rId35" display="https://www.w3schools.com/sql/func_mysql_sec_to_time.asp" xr:uid="{A6820765-3F1C-4AB0-8671-F6088E8A5F53}"/>
+    <hyperlink ref="B44" r:id="rId36" display="https://www.w3schools.com/sql/func_mysql_str_to_date.asp" xr:uid="{9BB8D98F-38F7-4450-9B91-01389A727EE0}"/>
+    <hyperlink ref="B45" r:id="rId37" display="https://www.w3schools.com/sql/func_mysql_subdate.asp" xr:uid="{2E69AE72-0AB9-4F72-A0E4-336029F58784}"/>
+    <hyperlink ref="B46" r:id="rId38" display="https://www.w3schools.com/sql/func_mysql_subtime.asp" xr:uid="{BA565EDA-4D4C-4905-B60C-DDECA39E96F8}"/>
+    <hyperlink ref="B47" r:id="rId39" display="https://www.w3schools.com/sql/func_mysql_sysdate.asp" xr:uid="{10F65A53-B9C1-4150-AD51-F015454345FF}"/>
+    <hyperlink ref="B48" r:id="rId40" display="https://www.w3schools.com/sql/func_mysql_time.asp" xr:uid="{EDB11893-67D1-4B68-A0BF-04EFDC2C2762}"/>
+    <hyperlink ref="B49" r:id="rId41" display="https://www.w3schools.com/sql/func_mysql_time_format.asp" xr:uid="{956BCC2C-F6C8-4986-A8A6-0F88D2657E26}"/>
+    <hyperlink ref="B50" r:id="rId42" display="https://www.w3schools.com/sql/func_mysql_time_to_sec.asp" xr:uid="{2B678C58-5EBF-42CC-BA25-079DF28CA58C}"/>
+    <hyperlink ref="B51" r:id="rId43" display="https://www.w3schools.com/sql/func_mysql_timediff.asp" xr:uid="{81617665-3ADA-463C-8E12-E348B72ECD00}"/>
+    <hyperlink ref="B52" r:id="rId44" display="https://www.w3schools.com/sql/func_mysql_timestamp.asp" xr:uid="{1F154406-BF0D-48E8-B848-57439EEA086F}"/>
+    <hyperlink ref="B53" r:id="rId45" display="https://www.w3schools.com/sql/func_mysql_to_days.asp" xr:uid="{12CC2718-BD13-4EFE-8423-E0BB3866151C}"/>
+    <hyperlink ref="B54" r:id="rId46" display="https://www.w3schools.com/sql/func_mysql_week.asp" xr:uid="{F36A0F3F-CF17-4CEF-8B54-CB041787B838}"/>
+    <hyperlink ref="B55" r:id="rId47" display="https://www.w3schools.com/sql/func_mysql_weekday.asp" xr:uid="{BF762861-489C-42D3-AFA0-AD91B2CC82DF}"/>
+    <hyperlink ref="B56" r:id="rId48" display="https://www.w3schools.com/sql/func_mysql_weekofyear.asp" xr:uid="{69DF8DB6-82D8-4E77-B398-A442F67982DF}"/>
+    <hyperlink ref="B57" r:id="rId49" display="https://www.w3schools.com/sql/func_mysql_year.asp" xr:uid="{6CE97D96-387D-471C-A0F2-0D51314220DA}"/>
+    <hyperlink ref="B58" r:id="rId50" display="https://www.w3schools.com/sql/func_mysql_yearweek.asp" xr:uid="{FEDB6AF2-95A4-4377-9AEF-C93F59F868B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAE157B-BAB6-43DF-B9A3-6F48D4D75F6A}">
-  <dimension ref="H3:R19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>627</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>628</v>
-      </c>
-      <c r="J5" t="s">
-        <v>629</v>
-      </c>
-      <c r="L5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="19" spans="17:18" x14ac:dyDescent="0.3">
-      <c r="Q19">
-        <f>600/140</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="R19">
-        <f>8/25</f>
-        <v>0.32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F810F34D-9528-4587-A350-A7815684E346}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B4:D24"/>
+  <dimension ref="B4:P24"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="56" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="50" t="s">
+    <row r="4" spans="2:16" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="O4" s="123" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="58"/>
-    </row>
-    <row r="6" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
-        <v>532</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57" t="s">
-        <v>534</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="57" t="s">
-        <v>537</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57" t="s">
-        <v>541</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="57" t="s">
-        <v>547</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="57" t="s">
-        <v>550</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>551</v>
+      <c r="D5" s="50"/>
+      <c r="O5" s="86" t="s">
+        <v>555</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="P7" s="120" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>557</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="P9" s="120" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="O10" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="O11" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="P11" s="120" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>560</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="P13" s="120" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="49" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="O14" s="121" t="s">
+        <v>448</v>
+      </c>
+      <c r="P14" s="122" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="57" t="s">
-        <v>552</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>553</v>
+      <c r="B17" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>555</v>
+      <c r="B18" s="49" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="57" t="s">
-        <v>556</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>557</v>
+      <c r="B19" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="57" t="s">
-        <v>558</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>559</v>
+      <c r="B20" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>561</v>
+      <c r="B21" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="57" t="s">
-        <v>562</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>561</v>
+      <c r="B22" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="57" t="s">
-        <v>563</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>561</v>
+      <c r="B23" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="57" t="s">
-        <v>564</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>565</v>
+      <c r="B24" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -8274,4 +8162,178 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="D16" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="19"/>
+      <c r="N19" s="22">
+        <f>4623-42</f>
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="19"/>
+      <c r="E20" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+    </row>
+    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notes SQL.xlsx
+++ b/Notes SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7068D4-95FD-4810-B4A1-D222D2846084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1014E218-B421-4FF7-A579-FE31800BED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="1056" windowWidth="11016" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbms" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="functions" sheetId="6" r:id="rId6"/>
     <sheet name="date functions" sheetId="10" r:id="rId7"/>
     <sheet name="advanced func" sheetId="11" r:id="rId8"/>
-    <sheet name="summary" sheetId="5" r:id="rId9"/>
-    <sheet name="data type" sheetId="7" r:id="rId10"/>
-    <sheet name="sqlalchemy" sheetId="8" r:id="rId11"/>
+    <sheet name="window func" sheetId="12" r:id="rId9"/>
+    <sheet name="summary" sheetId="5" r:id="rId10"/>
+    <sheet name="data type" sheetId="7" r:id="rId11"/>
+    <sheet name="sqlalchemy" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="595">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -2837,13 +2838,82 @@
   </si>
   <si>
     <t>FOR CAST</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CUME_DIST()</t>
+  </si>
+  <si>
+    <t>Cumulative distribution value</t>
+  </si>
+  <si>
+    <t>DENSE_RANK()</t>
+  </si>
+  <si>
+    <t>Rank of current row within its partition, without gaps</t>
+  </si>
+  <si>
+    <t>FIRST_VALUE()</t>
+  </si>
+  <si>
+    <t>Value of argument from first row of window frame</t>
+  </si>
+  <si>
+    <t>LAG()</t>
+  </si>
+  <si>
+    <t>Value of argument from row lagging current row within partition</t>
+  </si>
+  <si>
+    <t>LAST_VALUE()</t>
+  </si>
+  <si>
+    <t>Value of argument from last row of window frame</t>
+  </si>
+  <si>
+    <t>LEAD()</t>
+  </si>
+  <si>
+    <t>Value of argument from row leading current row within partition</t>
+  </si>
+  <si>
+    <t>NTH_VALUE()</t>
+  </si>
+  <si>
+    <t>Value of argument from N-th row of window frame</t>
+  </si>
+  <si>
+    <t>NTILE()</t>
+  </si>
+  <si>
+    <t>Bucket number of current row within its partition.</t>
+  </si>
+  <si>
+    <t>PERCENT_RANK()</t>
+  </si>
+  <si>
+    <t>Percentage rank value</t>
+  </si>
+  <si>
+    <t>RANK()</t>
+  </si>
+  <si>
+    <t>Rank of current row within its partition, with gaps</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER()</t>
+  </si>
+  <si>
+    <t>Number of current row within its partition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3254,6 +3324,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF555555"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -3320,7 +3411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -3765,12 +3856,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3975,36 +4081,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -4043,15 +4119,6 @@
     </xf>
     <xf numFmtId="0" fontId="49" fillId="6" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4107,6 +4174,54 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4812,8 +4927,8 @@
   </sheetPr>
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4877,16 +4992,16 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="28"/>
@@ -4895,14 +5010,14 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4944,16 +5059,16 @@
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="25" t="s">
@@ -4963,14 +5078,14 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25"/>
@@ -4980,80 +5095,80 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
       <c r="J13" s="23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="J14" s="81" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="J14" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
       <c r="U14" s="31"/>
     </row>
     <row r="15" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
     </row>
     <row r="16" spans="1:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
@@ -5100,72 +5215,72 @@
       </c>
     </row>
     <row r="22" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
       <c r="N22" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
       <c r="N23" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
       <c r="N24" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="80"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="117"/>
     </row>
     <row r="27" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
       <c r="N27" s="32" t="s">
         <v>194</v>
       </c>
@@ -5174,14 +5289,14 @@
       </c>
     </row>
     <row r="28" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
       <c r="N28" s="33" t="s">
         <v>196</v>
       </c>
@@ -5198,16 +5313,16 @@
       </c>
     </row>
     <row r="30" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="117"/>
       <c r="N30" s="16" t="s">
         <v>200</v>
       </c>
@@ -5216,16 +5331,16 @@
       </c>
     </row>
     <row r="31" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
       <c r="N31" s="16" t="s">
         <v>203</v>
       </c>
@@ -5234,14 +5349,14 @@
       </c>
     </row>
     <row r="32" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
       <c r="T32" s="16" t="s">
         <v>205</v>
       </c>
@@ -5331,16 +5446,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C23:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J28"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J32"/>
     <mergeCell ref="J6:Q7"/>
     <mergeCell ref="J10:Q11"/>
     <mergeCell ref="A13:H16"/>
     <mergeCell ref="J14:P16"/>
     <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J28"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5348,6 +5463,180 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="D16" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="19"/>
+      <c r="N19" s="22">
+        <f>4623-42</f>
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="19"/>
+      <c r="E20" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+    </row>
+    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5497,7 +5786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5632,8 +5921,8 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5996,7 +6285,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="77" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6004,292 +6293,292 @@
     <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="89" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="89" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="89" t="s">
         <v>541</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="120" t="s">
         <v>545</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
-      <c r="K5" s="99" t="s">
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
+      <c r="K5" s="120" t="s">
         <v>546</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="101"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="89" t="s">
+      <c r="L6" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="79" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="93" t="s">
+      <c r="G7" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="78" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="88" t="s">
+      <c r="L8" s="78" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="85" t="s">
         <v>543</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="82" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="86" t="s">
         <v>542</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="81" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="82" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="109" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="87" t="s">
         <v>548</v>
       </c>
-      <c r="H12" s="111"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="117" t="s">
+      <c r="B13" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="118"/>
-      <c r="F13" s="98" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="105"/>
+      <c r="F13" s="88" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="88" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="88" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="119" t="s">
+      <c r="F16" s="106" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="119" t="s">
+      <c r="F17" s="106" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="96" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="94" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="94" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="109" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="96" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="109" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="96" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114" t="s">
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6351,7 +6640,7 @@
     <row r="79" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="90"/>
+      <c r="B84" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7899,8 +8188,8 @@
   </sheetPr>
   <dimension ref="B4:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7913,7 +8202,7 @@
       <c r="B4" s="48" t="s">
         <v>445</v>
       </c>
-      <c r="O4" s="123" t="s">
+      <c r="O4" s="110" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7925,7 +8214,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="50"/>
-      <c r="O5" s="86" t="s">
+      <c r="O5" s="76" t="s">
         <v>555</v>
       </c>
       <c r="P5" s="42" t="s">
@@ -7956,7 +8245,7 @@
       <c r="O7" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="P7" s="120" t="s">
+      <c r="P7" s="107" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7984,7 +8273,7 @@
       <c r="O9" s="64" t="s">
         <v>424</v>
       </c>
-      <c r="P9" s="120" t="s">
+      <c r="P9" s="107" t="s">
         <v>565</v>
       </c>
     </row>
@@ -8012,7 +8301,7 @@
       <c r="O11" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="P11" s="120" t="s">
+      <c r="P11" s="107" t="s">
         <v>567</v>
       </c>
     </row>
@@ -8040,7 +8329,7 @@
       <c r="O13" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="P13" s="120" t="s">
+      <c r="P13" s="107" t="s">
         <v>569</v>
       </c>
     </row>
@@ -8051,10 +8340,10 @@
       <c r="C14" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="O14" s="121" t="s">
+      <c r="O14" s="108" t="s">
         <v>448</v>
       </c>
-      <c r="P14" s="122" t="s">
+      <c r="P14" s="109" t="s">
         <v>570</v>
       </c>
     </row>
@@ -8165,175 +8454,132 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="B1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FD20C3-891B-4E82-BDB3-3FEE1B3D459C}">
+  <dimension ref="D3:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="50"/>
+    <col min="4" max="4" width="19.109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.77734375" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H5" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="17"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="17"/>
-      <c r="D16" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="19"/>
-      <c r="N19" s="22">
-        <f>4623-42</f>
-        <v>4581</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="19"/>
-      <c r="E20" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-    </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>54</v>
+    <row r="3" spans="4:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="126" t="s">
+        <v>572</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="124" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" s="125" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="124" t="s">
+        <v>575</v>
+      </c>
+      <c r="E6" s="125" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="124" t="s">
+        <v>577</v>
+      </c>
+      <c r="E7" s="125" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="124" t="s">
+        <v>579</v>
+      </c>
+      <c r="E8" s="125" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="124" t="s">
+        <v>581</v>
+      </c>
+      <c r="E9" s="125" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="124" t="s">
+        <v>583</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="124" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="124" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12" s="125" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="124" t="s">
+        <v>589</v>
+      </c>
+      <c r="E13" s="125" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="124" t="s">
+        <v>591</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="124" t="s">
+        <v>593</v>
+      </c>
+      <c r="E15" s="125" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E20:H20"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" location="function_cume-dist" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_cume-dist" xr:uid="{3A56620A-53EC-4E30-8E73-CAAD861BAE5A}"/>
+    <hyperlink ref="D6" r:id="rId2" location="function_dense-rank" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_dense-rank" xr:uid="{9D452C6B-D20C-4F96-A983-DAAEC14E82E8}"/>
+    <hyperlink ref="D7" r:id="rId3" location="function_first-value" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_first-value" xr:uid="{89E2F95B-4029-4486-B5A4-E02883E5B1DD}"/>
+    <hyperlink ref="D8" r:id="rId4" location="function_lag" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_lag" xr:uid="{6E222ACF-978C-4767-BBB2-E7B41EAD8115}"/>
+    <hyperlink ref="D9" r:id="rId5" location="function_last-value" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_last-value" xr:uid="{F67C9A3C-0203-4B36-B062-CD2EAA3BD196}"/>
+    <hyperlink ref="D10" r:id="rId6" location="function_lead" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_lead" xr:uid="{1B74246F-0CC4-4D06-A783-F159643C7A53}"/>
+    <hyperlink ref="D11" r:id="rId7" location="function_nth-value" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_nth-value" xr:uid="{8CF4F0AC-108C-4C2E-91DB-0C670D9125C6}"/>
+    <hyperlink ref="D12" r:id="rId8" location="function_ntile" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_ntile" xr:uid="{658BC4A1-1B08-4EDA-A7C4-1789E4377789}"/>
+    <hyperlink ref="D13" r:id="rId9" location="function_percent-rank" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_percent-rank" xr:uid="{1BA4583A-5D55-4BA7-B5CC-DF82322672C6}"/>
+    <hyperlink ref="D14" r:id="rId10" location="function_rank" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_rank" xr:uid="{AC102E6A-6CD1-4C5E-A94D-C05D322967B8}"/>
+    <hyperlink ref="D15" r:id="rId11" location="function_row-number" display="https://dev.mysql.com/doc/refman/8.1/en/window-function-descriptions.html - function_row-number" xr:uid="{EE306D5A-2462-41FF-811A-D31E103D91EF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notes SQL.xlsx
+++ b/Notes SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Desktop\GREAT LEARNING\FROM SCRATCH LEARNING\PYTHON\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1014E218-B421-4FF7-A579-FE31800BED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8ACBBE-4AC4-4852-9A6E-B2A386554616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="1056" windowWidth="11016" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbms" sheetId="1" r:id="rId1"/>
@@ -2913,7 +2913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3193,12 +3193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3346,7 +3340,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3366,12 +3360,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F0D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3411,7 +3399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -3539,21 +3527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDEE2E6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDEE2E6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDEE2E6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3874,9 +3847,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3975,205 +3948,205 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="36" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="22" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4201,26 +4174,17 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4927,8 +4891,8 @@
   </sheetPr>
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5185,6 +5149,10 @@
       <c r="U17" s="31"/>
     </row>
     <row r="18" spans="2:21" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="10">
+        <f>0.0194174757281553+0.00970873786407766</f>
+        <v>2.9126213592232962E-2</v>
+      </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
@@ -5469,7 +5437,9 @@
   </sheetPr>
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5643,7 +5613,7 @@
   </sheetPr>
   <dimension ref="C1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5919,10 +5889,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6022,7 +5992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>154</v>
       </c>
@@ -6033,7 +6003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>80</v>
       </c>
@@ -6044,12 +6014,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>158</v>
       </c>
@@ -6060,7 +6030,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
         <v>161</v>
       </c>
@@ -6068,8 +6038,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>163</v>
       </c>
@@ -6077,9 +6047,1245 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>103</v>
+      </c>
+      <c r="U29">
+        <f>T29-S29</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>102</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30:U93" si="0">T30-S30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>101</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>100</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>99</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>98</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <v>97</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>96</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S37">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <v>95</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>94</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>93</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <v>92</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S41">
+        <v>13</v>
+      </c>
+      <c r="T41">
+        <v>91</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S42">
+        <v>14</v>
+      </c>
+      <c r="T42">
+        <v>90</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S43">
+        <v>15</v>
+      </c>
+      <c r="T43">
+        <v>89</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S44">
+        <v>16</v>
+      </c>
+      <c r="T44">
+        <v>88</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S45">
+        <v>17</v>
+      </c>
+      <c r="T45">
+        <v>87</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S46">
+        <v>18</v>
+      </c>
+      <c r="T46">
+        <v>86</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S47">
+        <v>19</v>
+      </c>
+      <c r="T47">
+        <v>85</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S48">
+        <v>20</v>
+      </c>
+      <c r="T48">
+        <v>84</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S49">
+        <v>21</v>
+      </c>
+      <c r="T49">
+        <v>83</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>22</v>
+      </c>
+      <c r="T50">
+        <v>82</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S51">
+        <v>23</v>
+      </c>
+      <c r="T51">
+        <v>81</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S52">
+        <v>24</v>
+      </c>
+      <c r="T52">
+        <v>80</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <v>25</v>
+      </c>
+      <c r="T53">
+        <v>79</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S54">
+        <v>26</v>
+      </c>
+      <c r="T54">
+        <v>78</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S55">
+        <v>27</v>
+      </c>
+      <c r="T55">
+        <v>77</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S56">
+        <v>28</v>
+      </c>
+      <c r="T56">
+        <v>76</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S57">
+        <v>29</v>
+      </c>
+      <c r="T57">
+        <v>75</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S58">
+        <v>30</v>
+      </c>
+      <c r="T58">
+        <v>74</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S59">
+        <v>31</v>
+      </c>
+      <c r="T59">
+        <v>73</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S60">
+        <v>32</v>
+      </c>
+      <c r="T60">
+        <v>72</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S61">
+        <v>33</v>
+      </c>
+      <c r="T61">
+        <v>71</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S62">
+        <v>34</v>
+      </c>
+      <c r="T62">
+        <v>70</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S63">
+        <v>35</v>
+      </c>
+      <c r="T63">
+        <v>69</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S64">
+        <v>36</v>
+      </c>
+      <c r="T64">
+        <v>68</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S65">
+        <v>37</v>
+      </c>
+      <c r="T65">
+        <v>67</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S66">
+        <v>38</v>
+      </c>
+      <c r="T66">
+        <v>66</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S67">
+        <v>39</v>
+      </c>
+      <c r="T67">
+        <v>65</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <v>40</v>
+      </c>
+      <c r="T68">
+        <v>64</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S69">
+        <v>41</v>
+      </c>
+      <c r="T69">
+        <v>63</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S70">
+        <v>42</v>
+      </c>
+      <c r="T70">
+        <v>62</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <v>43</v>
+      </c>
+      <c r="T71">
+        <v>61</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S72">
+        <v>44</v>
+      </c>
+      <c r="T72">
+        <v>60</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <v>45</v>
+      </c>
+      <c r="T73">
+        <v>59</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S74">
+        <v>46</v>
+      </c>
+      <c r="T74">
+        <v>58</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S75">
+        <v>47</v>
+      </c>
+      <c r="T75">
+        <v>57</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S76">
+        <v>48</v>
+      </c>
+      <c r="T76">
+        <v>56</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <v>49</v>
+      </c>
+      <c r="T77">
+        <v>55</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S78">
+        <v>50</v>
+      </c>
+      <c r="T78">
+        <v>54</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S79">
+        <v>51</v>
+      </c>
+      <c r="T79">
+        <v>53</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S80">
+        <v>52</v>
+      </c>
+      <c r="T80">
+        <v>52</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S81">
+        <v>53</v>
+      </c>
+      <c r="T81">
+        <v>51</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="82" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S82">
+        <v>54</v>
+      </c>
+      <c r="T82">
+        <v>50</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="83" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S83">
+        <v>55</v>
+      </c>
+      <c r="T83">
+        <v>49</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="84" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S84">
+        <v>56</v>
+      </c>
+      <c r="T84">
+        <v>48</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="85" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S85">
+        <v>57</v>
+      </c>
+      <c r="T85">
+        <v>47</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="86" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S86">
+        <v>58</v>
+      </c>
+      <c r="T86">
+        <v>46</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="87" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S87">
+        <v>59</v>
+      </c>
+      <c r="T87">
+        <v>45</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="88" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S88">
+        <v>60</v>
+      </c>
+      <c r="T88">
+        <v>44</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="89" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S89">
+        <v>61</v>
+      </c>
+      <c r="T89">
+        <v>43</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="90" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S90">
+        <v>62</v>
+      </c>
+      <c r="T90">
+        <v>42</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="91" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S91">
+        <v>63</v>
+      </c>
+      <c r="T91">
+        <v>41</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="92" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S92">
+        <v>64</v>
+      </c>
+      <c r="T92">
+        <v>40</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="93" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S93">
+        <v>65</v>
+      </c>
+      <c r="T93">
+        <v>39</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="94" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S94">
+        <v>66</v>
+      </c>
+      <c r="T94">
+        <v>38</v>
+      </c>
+      <c r="U94">
+        <f t="shared" ref="U94:U131" si="1">T94-S94</f>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="95" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S95">
+        <v>67</v>
+      </c>
+      <c r="T95">
+        <v>37</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="96" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S96">
+        <v>68</v>
+      </c>
+      <c r="T96">
+        <v>36</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="1"/>
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="97" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S97">
+        <v>69</v>
+      </c>
+      <c r="T97">
+        <v>35</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="1"/>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="98" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S98">
+        <v>70</v>
+      </c>
+      <c r="T98">
+        <v>34</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="1"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="99" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S99">
+        <v>71</v>
+      </c>
+      <c r="T99">
+        <v>33</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="1"/>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="100" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S100">
+        <v>72</v>
+      </c>
+      <c r="T100">
+        <v>32</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="101" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S101">
+        <v>73</v>
+      </c>
+      <c r="T101">
+        <v>31</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="1"/>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="102" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S102">
+        <v>74</v>
+      </c>
+      <c r="T102">
+        <v>30</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="1"/>
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="103" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S103">
+        <v>75</v>
+      </c>
+      <c r="T103">
+        <v>29</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="1"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="104" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S104">
+        <v>76</v>
+      </c>
+      <c r="T104">
+        <v>28</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="1"/>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="105" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S105">
+        <v>77</v>
+      </c>
+      <c r="T105">
+        <v>27</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="106" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S106">
+        <v>78</v>
+      </c>
+      <c r="T106">
+        <v>26</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="1"/>
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="107" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S107">
+        <v>79</v>
+      </c>
+      <c r="T107">
+        <v>25</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="1"/>
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="108" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S108">
+        <v>80</v>
+      </c>
+      <c r="T108">
+        <v>24</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="1"/>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="109" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S109">
+        <v>81</v>
+      </c>
+      <c r="T109">
+        <v>23</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="1"/>
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="110" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S110">
+        <v>82</v>
+      </c>
+      <c r="T110">
+        <v>22</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="111" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S111">
+        <v>83</v>
+      </c>
+      <c r="T111">
+        <v>21</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="1"/>
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="112" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S112">
+        <v>84</v>
+      </c>
+      <c r="T112">
+        <v>20</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="1"/>
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="113" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S113">
+        <v>85</v>
+      </c>
+      <c r="T113">
+        <v>19</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="1"/>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="114" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S114">
+        <v>86</v>
+      </c>
+      <c r="T114">
+        <v>18</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="1"/>
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="115" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S115">
+        <v>87</v>
+      </c>
+      <c r="T115">
+        <v>17</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="1"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="116" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S116">
+        <v>88</v>
+      </c>
+      <c r="T116">
+        <v>16</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="1"/>
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="117" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S117">
+        <v>89</v>
+      </c>
+      <c r="T117">
+        <v>15</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="1"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="118" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S118">
+        <v>90</v>
+      </c>
+      <c r="T118">
+        <v>14</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="1"/>
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="119" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S119">
+        <v>91</v>
+      </c>
+      <c r="T119">
+        <v>13</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="1"/>
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="120" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S120">
+        <v>92</v>
+      </c>
+      <c r="T120">
+        <v>12</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="1"/>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="121" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S121">
+        <v>93</v>
+      </c>
+      <c r="T121">
+        <v>11</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="1"/>
+        <v>-82</v>
+      </c>
+    </row>
+    <row r="122" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S122">
+        <v>94</v>
+      </c>
+      <c r="T122">
+        <v>10</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="1"/>
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="123" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S123">
+        <v>95</v>
+      </c>
+      <c r="T123">
+        <v>9</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="1"/>
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="124" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S124">
+        <v>96</v>
+      </c>
+      <c r="T124">
+        <v>8</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="1"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="125" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S125">
+        <v>97</v>
+      </c>
+      <c r="T125">
+        <v>7</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="1"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="126" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S126">
+        <v>98</v>
+      </c>
+      <c r="T126">
+        <v>6</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="127" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S127">
+        <v>99</v>
+      </c>
+      <c r="T127">
+        <v>5</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="1"/>
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="128" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S128">
+        <v>100</v>
+      </c>
+      <c r="T128">
+        <v>4</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="1"/>
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="129" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S129">
+        <v>101</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="1"/>
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="130" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S130">
+        <v>102</v>
+      </c>
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="131" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S131">
+        <v>103</v>
+      </c>
+      <c r="T131">
+        <v>1</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="1"/>
+        <v>-102</v>
       </c>
     </row>
   </sheetData>
@@ -6090,73 +7296,1381 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA25D3F-7051-4F17-8843-A5CBC13B16F3}">
-  <dimension ref="G3:M9"/>
+  <dimension ref="C2:E115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A49" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="36"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>114</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">D3-C3</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>111</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>110</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>109</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>108</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>107</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>101</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>99</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>98</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>97</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>96</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>95</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>91</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>88</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>84</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>82</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>81</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>79</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>78</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>77</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>76</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>74</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>73</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>72</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>69</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>68</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>67</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>66</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>63</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>61</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>59</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>58</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>56</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>55</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>54</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>53</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>52</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>51</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>49</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E116" si="1">D67-C67</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>48</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>47</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>46</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>45</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>44</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>43</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>42</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>41</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>39</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>38</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>36</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>35</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>33</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>29</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <v>28</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>26</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <v>24</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="D102">
+        <v>14</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="D104">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>106</v>
+      </c>
+      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>107</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>108</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>110</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>111</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>112</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C114">
+        <v>113</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>-113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6263,8 +8777,8 @@
   </sheetPr>
   <dimension ref="B1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6285,7 +8799,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="74" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6293,13 +8807,13 @@
     <row r="3" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="86" t="s">
         <v>544</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="86" t="s">
         <v>554</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="86" t="s">
         <v>541</v>
       </c>
       <c r="F5" s="120" t="s">
@@ -6315,270 +8829,270 @@
       <c r="M5" s="122"/>
     </row>
     <row r="6" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="78" t="s">
+      <c r="K6" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="76" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="83" t="s">
+      <c r="G7" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="75" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="75" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="79" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="83" t="s">
         <v>542</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="78" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="H11" s="79" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="84" t="s">
         <v>548</v>
       </c>
-      <c r="H12" s="98"/>
+      <c r="H12" s="95"/>
     </row>
     <row r="13" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="105"/>
-      <c r="F13" s="88" t="s">
+      <c r="C13" s="97"/>
+      <c r="D13" s="102"/>
+      <c r="F13" s="85" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="85" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="85" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="103" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="103" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="93" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="91" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="91" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="96" t="s">
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="93" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="96" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="93" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6640,7 +9154,7 @@
     <row r="79" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="80" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="80"/>
+      <c r="B84" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6735,7 +9249,7 @@
   <dimension ref="B3:L40"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6748,37 +9262,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="55" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="37"/>
       <c r="J3"/>
       <c r="K3" s="1"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="41" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="39" t="s">
         <v>56</v>
       </c>
       <c r="J4"/>
@@ -6786,16 +9300,16 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="41" t="s">
         <v>286</v>
       </c>
       <c r="J5"/>
@@ -6803,16 +9317,16 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="41" t="s">
         <v>288</v>
       </c>
       <c r="J6"/>
@@ -6820,16 +9334,16 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="41" t="s">
         <v>290</v>
       </c>
       <c r="J7"/>
@@ -6837,16 +9351,16 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="41" t="s">
         <v>292</v>
       </c>
       <c r="J8"/>
@@ -6854,16 +9368,16 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="41" t="s">
         <v>294</v>
       </c>
       <c r="J9"/>
@@ -6871,16 +9385,16 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="41" t="s">
         <v>296</v>
       </c>
       <c r="J10"/>
@@ -6888,16 +9402,16 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="41" t="s">
         <v>298</v>
       </c>
       <c r="J11"/>
@@ -6905,16 +9419,16 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="41" t="s">
         <v>298</v>
       </c>
       <c r="J12"/>
@@ -6922,16 +9436,16 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="41" t="s">
         <v>301</v>
       </c>
       <c r="J13"/>
@@ -6939,16 +9453,16 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="41" t="s">
         <v>303</v>
       </c>
       <c r="J14"/>
@@ -6956,16 +9470,16 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="41" t="s">
         <v>305</v>
       </c>
       <c r="J15"/>
@@ -6973,16 +9487,16 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="41" t="s">
         <v>307</v>
       </c>
       <c r="J16"/>
@@ -6990,16 +9504,16 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="41" t="s">
         <v>309</v>
       </c>
       <c r="J17"/>
@@ -7007,16 +9521,16 @@
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="41" t="s">
         <v>311</v>
       </c>
       <c r="J18"/>
@@ -7024,16 +9538,16 @@
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="41" t="s">
         <v>313</v>
       </c>
       <c r="J19"/>
@@ -7041,16 +9555,16 @@
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="41" t="s">
         <v>315</v>
       </c>
       <c r="J20"/>
@@ -7058,16 +9572,16 @@
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="41" t="s">
         <v>317</v>
       </c>
       <c r="J21"/>
@@ -7075,16 +9589,16 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="41" t="s">
         <v>319</v>
       </c>
       <c r="J22"/>
@@ -7092,16 +9606,16 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="41" t="s">
         <v>321</v>
       </c>
       <c r="J23"/>
@@ -7109,16 +9623,16 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="41" t="s">
         <v>323</v>
       </c>
       <c r="J24"/>
@@ -7126,16 +9640,16 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="41" t="s">
         <v>325</v>
       </c>
       <c r="J25"/>
@@ -7143,16 +9657,16 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="41" t="s">
         <v>327</v>
       </c>
       <c r="J26"/>
@@ -7160,16 +9674,16 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="41" t="s">
         <v>329</v>
       </c>
       <c r="J27"/>
@@ -7177,16 +9691,16 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="41" t="s">
         <v>331</v>
       </c>
       <c r="J28"/>
@@ -7194,16 +9708,16 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="41" t="s">
         <v>333</v>
       </c>
       <c r="J29"/>
@@ -7211,16 +9725,16 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="41" t="s">
         <v>335</v>
       </c>
       <c r="J30"/>
@@ -7228,16 +9742,16 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="41" t="s">
         <v>335</v>
       </c>
       <c r="J31"/>
@@ -7245,16 +9759,16 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="H32" s="56" t="s">
+      <c r="H32" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="41" t="s">
         <v>338</v>
       </c>
       <c r="J32"/>
@@ -7262,16 +9776,16 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="41" t="s">
         <v>340</v>
       </c>
       <c r="J33"/>
@@ -7279,16 +9793,16 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="H34" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="I34" s="44" t="s">
+      <c r="I34" s="41" t="s">
         <v>342</v>
       </c>
       <c r="J34"/>
@@ -7296,16 +9810,16 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="H35" s="49" t="s">
+      <c r="H35" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="I35" s="44" t="s">
+      <c r="I35" s="41" t="s">
         <v>344</v>
       </c>
       <c r="J35"/>
@@ -7313,16 +9827,16 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="H36" s="56" t="s">
+      <c r="H36" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="41" t="s">
         <v>346</v>
       </c>
       <c r="J36"/>
@@ -7330,16 +9844,16 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="H37" s="49" t="s">
+      <c r="H37" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="41" t="s">
         <v>348</v>
       </c>
       <c r="J37"/>
@@ -7347,10 +9861,10 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H38" s="56" t="s">
+      <c r="H38" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="I38" s="44" t="s">
+      <c r="I38" s="41" t="s">
         <v>350</v>
       </c>
       <c r="J38"/>
@@ -7358,10 +9872,10 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H39" s="49" t="s">
+      <c r="H39" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="41" t="s">
         <v>352</v>
       </c>
       <c r="J39"/>
@@ -7369,10 +9883,10 @@
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="I40" s="44" t="s">
+      <c r="I40" s="41" t="s">
         <v>353</v>
       </c>
       <c r="J40"/>
@@ -7462,7 +9976,7 @@
   </sheetPr>
   <dimension ref="B6:T58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -7473,654 +9987,654 @@
   <sheetData>
     <row r="6" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:20" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="56" t="s">
         <v>480</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="40" t="s">
         <v>482</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
     </row>
     <row r="10" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="63" t="s">
         <v>484</v>
       </c>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
     </row>
     <row r="11" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
     </row>
     <row r="12" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="61" t="s">
         <v>487</v>
       </c>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="70" t="s">
         <v>488</v>
       </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
     </row>
     <row r="13" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="62" t="s">
         <v>489</v>
       </c>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="70" t="s">
         <v>490</v>
       </c>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
     </row>
     <row r="14" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="M14" s="73" t="s">
+      <c r="M14" s="70" t="s">
         <v>492</v>
       </c>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
     </row>
     <row r="15" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="35" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="L16" s="61" t="s">
+      <c r="L16" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="36" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="35" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="M18" s="36" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="57" t="s">
         <v>500</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="35" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="L20" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="M20" s="39" t="s">
+      <c r="M20" s="36" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="35" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="L22" s="61" t="s">
+      <c r="L22" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="36" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="62" t="s">
         <v>508</v>
       </c>
-      <c r="M23" s="66" t="s">
+      <c r="M23" s="63" t="s">
         <v>509</v>
       </c>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
     </row>
     <row r="24" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="M24" s="66" t="s">
+      <c r="M24" s="63" t="s">
         <v>511</v>
       </c>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
     </row>
     <row r="25" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="57" t="s">
         <v>512</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="35" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="36" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="57" t="s">
         <v>516</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="35" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="L28" s="61" t="s">
+      <c r="L28" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="36" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="M29" s="38" t="s">
+      <c r="M29" s="35" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="L30" s="61" t="s">
+      <c r="L30" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="36" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="L31" s="60" t="s">
+      <c r="L31" s="57" t="s">
         <v>523</v>
       </c>
-      <c r="M31" s="38" t="s">
+      <c r="M31" s="35" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="32" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="L32" s="61" t="s">
+      <c r="L32" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="36" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="L33" s="60" t="s">
+      <c r="L33" s="57" t="s">
         <v>527</v>
       </c>
-      <c r="M33" s="38" t="s">
+      <c r="M33" s="35" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="L34" s="61" t="s">
+      <c r="L34" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="36" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="L35" s="60" t="s">
+      <c r="L35" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="M35" s="38" t="s">
+      <c r="M35" s="35" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="L36" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="36" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="L37" s="60" t="s">
+      <c r="L37" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="M37" s="38" t="s">
+      <c r="M37" s="35" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="L38" s="65" t="s">
+      <c r="L38" s="62" t="s">
         <v>537</v>
       </c>
-      <c r="M38" s="69" t="s">
+      <c r="M38" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="71"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="68"/>
     </row>
     <row r="39" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="65" t="s">
         <v>539</v>
       </c>
-      <c r="M39" s="72" t="s">
+      <c r="M39" s="69" t="s">
         <v>540</v>
       </c>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="71"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="68"/>
     </row>
     <row r="40" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="41" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="41" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="41" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="41" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="41" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="41" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="41" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="41" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="41" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="41" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="41" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="41" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="41" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="41" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="41" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="41" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="44" t="s">
         <v>440</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="41" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="41" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="41" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8188,8 +10702,8 @@
   </sheetPr>
   <dimension ref="B4:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8199,231 +10713,231 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:16" ht="30.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="107" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="O5" s="76" t="s">
+      <c r="D5" s="47"/>
+      <c r="O5" s="73" t="s">
         <v>555</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="40" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>449</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="61" t="s">
         <v>556</v>
       </c>
-      <c r="P7" s="107" t="s">
+      <c r="P7" s="104" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
         <v>450</v>
       </c>
-      <c r="O8" s="62" t="s">
+      <c r="O8" s="59" t="s">
         <v>557</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="40" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="O9" s="64" t="s">
+      <c r="O9" s="61" t="s">
         <v>424</v>
       </c>
-      <c r="P9" s="107" t="s">
+      <c r="P9" s="104" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="O10" s="62" t="s">
+      <c r="O10" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="40" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="O11" s="64" t="s">
+      <c r="O11" s="61" t="s">
         <v>559</v>
       </c>
-      <c r="P11" s="107" t="s">
+      <c r="P11" s="104" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="O12" s="62" t="s">
+      <c r="O12" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="P12" s="40" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="O13" s="64" t="s">
+      <c r="O13" s="61" t="s">
         <v>561</v>
       </c>
-      <c r="P13" s="107" t="s">
+      <c r="P13" s="104" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="O14" s="108" t="s">
+      <c r="O14" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="P14" s="109" t="s">
+      <c r="P14" s="106" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="41" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="41" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="41" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="41" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="41" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="41" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="41" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="41" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="41" t="s">
         <v>479</v>
       </c>
     </row>
@@ -8463,106 +10977,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="50"/>
-    <col min="4" max="4" width="19.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.77734375" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="50"/>
+    <col min="1" max="3" width="8.88671875" style="47"/>
+    <col min="4" max="4" width="19.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="4:5" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="110" t="s">
         <v>572</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="110" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="108" t="s">
         <v>573</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="109" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="6" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="108" t="s">
         <v>575</v>
       </c>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="109" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="7" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="108" t="s">
         <v>577</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="109" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="8" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="109" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="9" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="108" t="s">
         <v>581</v>
       </c>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="109" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="10" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="108" t="s">
         <v>583</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="109" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="11" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="108" t="s">
         <v>585</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="109" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="12" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="108" t="s">
         <v>587</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="109" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="13" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="108" t="s">
         <v>589</v>
       </c>
-      <c r="E13" s="125" t="s">
+      <c r="E13" s="109" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="14" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="108" t="s">
         <v>591</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="109" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="108" t="s">
         <v>593</v>
       </c>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="109" t="s">
         <v>594</v>
       </c>
     </row>
